--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,25 +452,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>stringency_index</t>
+          <t>population</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>Oporavljeni</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Oporavljeni</t>
+          <t>Testirani</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Testirani</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Smrtni sl.</t>
         </is>
@@ -489,19 +484,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>11.11</v>
+        <v>3280815</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G2" t="n">
-        <v>585</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -517,19 +509,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.11</v>
+        <v>3280815</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G3" t="n">
-        <v>585</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -545,19 +534,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.11</v>
+        <v>3280815</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G4" t="n">
-        <v>585</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -573,19 +559,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>11.11</v>
+        <v>3280815</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G5" t="n">
-        <v>585</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -601,19 +584,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>11.11</v>
+        <v>3280815</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G6" t="n">
-        <v>585</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -629,19 +609,16 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>29.17</v>
+        <v>3280815</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G7" t="n">
-        <v>585</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -657,19 +634,16 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>40.28</v>
+        <v>3280815</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G8" t="n">
-        <v>585</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -685,19 +659,16 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>40.28</v>
+        <v>3280815</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G9" t="n">
-        <v>585</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -713,19 +684,16 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>40.28</v>
+        <v>3280815</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G10" t="n">
-        <v>585</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -741,19 +709,16 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>40.28</v>
+        <v>3280815</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G11" t="n">
-        <v>585</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -769,19 +734,16 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>40.28</v>
+        <v>3280815</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G12" t="n">
-        <v>585</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -797,19 +759,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>45.83</v>
+        <v>3280815</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G13" t="n">
-        <v>585</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -825,19 +784,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>70.83</v>
+        <v>3280815</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G14" t="n">
-        <v>585</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -853,19 +809,16 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>77.78</v>
+        <v>3280815</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G15" t="n">
-        <v>585</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -881,19 +834,16 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>77.78</v>
+        <v>3280815</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G16" t="n">
-        <v>585</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -909,19 +859,16 @@
         <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G17" t="n">
-        <v>585</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -937,19 +884,16 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G18" t="n">
-        <v>585</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -965,19 +909,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G19" t="n">
-        <v>585</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -993,19 +934,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G20" t="n">
-        <v>585</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1021,19 +959,16 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G21" t="n">
-        <v>585</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1049,19 +984,16 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G22" t="n">
-        <v>585</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1077,19 +1009,16 @@
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G23" t="n">
-        <v>585</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1105,19 +1034,16 @@
         <v>46</v>
       </c>
       <c r="D24" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G24" t="n">
-        <v>585</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1133,19 +1059,16 @@
         <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G25" t="n">
-        <v>585</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1161,19 +1084,16 @@
         <v>65</v>
       </c>
       <c r="D26" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G26" t="n">
-        <v>585</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1189,19 +1109,16 @@
         <v>45</v>
       </c>
       <c r="D27" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G27" t="n">
-        <v>585</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1217,19 +1134,16 @@
         <v>52</v>
       </c>
       <c r="D28" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G28" t="n">
-        <v>585</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1245,19 +1159,16 @@
         <v>39</v>
       </c>
       <c r="D29" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G29" t="n">
-        <v>585</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1273,19 +1184,16 @@
         <v>74</v>
       </c>
       <c r="D30" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G30" t="n">
-        <v>585</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1301,18 +1209,15 @@
         <v>46</v>
       </c>
       <c r="D31" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E31" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="G31" t="n">
-        <v>645</v>
-      </c>
-      <c r="H31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1329,18 +1234,15 @@
         <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E32" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="G32" t="n">
-        <v>590</v>
-      </c>
-      <c r="H32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1357,18 +1259,15 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E33" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="G33" t="n">
-        <v>602</v>
-      </c>
-      <c r="H33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1385,18 +1284,15 @@
         <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E34" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="G34" t="n">
-        <v>609</v>
-      </c>
-      <c r="H34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1413,18 +1309,15 @@
         <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E35" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="G35" t="n">
-        <v>590</v>
-      </c>
-      <c r="H35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1441,18 +1334,15 @@
         <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E36" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="G36" t="n">
-        <v>478</v>
-      </c>
-      <c r="H36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1469,18 +1359,15 @@
         <v>54</v>
       </c>
       <c r="D37" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E37" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="G37" t="n">
-        <v>874</v>
-      </c>
-      <c r="H37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1497,18 +1384,15 @@
         <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E38" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="G38" t="n">
-        <v>1028</v>
-      </c>
-      <c r="H38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1525,18 +1409,15 @@
         <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E39" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="G39" t="n">
-        <v>782</v>
-      </c>
-      <c r="H39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1434,15 @@
         <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E40" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="G40" t="n">
-        <v>794</v>
-      </c>
-      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1581,18 +1459,15 @@
         <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E41" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="G41" t="n">
-        <v>637</v>
-      </c>
-      <c r="H41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1609,18 +1484,15 @@
         <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E42" t="n">
-        <v>3280815</v>
+        <v>236</v>
       </c>
       <c r="F42" t="n">
-        <v>236</v>
+        <v>795</v>
       </c>
       <c r="G42" t="n">
-        <v>795</v>
-      </c>
-      <c r="H42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1637,18 +1509,15 @@
         <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E43" t="n">
-        <v>3280815</v>
+        <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>932</v>
       </c>
       <c r="G43" t="n">
-        <v>932</v>
-      </c>
-      <c r="H43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1665,18 +1534,15 @@
         <v>57</v>
       </c>
       <c r="D44" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E44" t="n">
-        <v>3280815</v>
+        <v>24</v>
       </c>
       <c r="F44" t="n">
-        <v>24</v>
+        <v>1404</v>
       </c>
       <c r="G44" t="n">
-        <v>1404</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1693,18 +1559,15 @@
         <v>47</v>
       </c>
       <c r="D45" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E45" t="n">
-        <v>3280815</v>
+        <v>43</v>
       </c>
       <c r="F45" t="n">
-        <v>43</v>
+        <v>1008</v>
       </c>
       <c r="G45" t="n">
-        <v>1008</v>
-      </c>
-      <c r="H45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1721,18 +1584,15 @@
         <v>54</v>
       </c>
       <c r="D46" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E46" t="n">
-        <v>3280815</v>
+        <v>18</v>
       </c>
       <c r="F46" t="n">
-        <v>18</v>
+        <v>1117</v>
       </c>
       <c r="G46" t="n">
-        <v>1117</v>
-      </c>
-      <c r="H46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1749,18 +1609,15 @@
         <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E47" t="n">
-        <v>3280815</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>950</v>
       </c>
       <c r="G47" t="n">
-        <v>950</v>
-      </c>
-      <c r="H47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1777,18 +1634,15 @@
         <v>24</v>
       </c>
       <c r="D48" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E48" t="n">
-        <v>3280815</v>
+        <v>34</v>
       </c>
       <c r="F48" t="n">
-        <v>34</v>
+        <v>540</v>
       </c>
       <c r="G48" t="n">
-        <v>540</v>
-      </c>
-      <c r="H48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1805,18 +1659,15 @@
         <v>33</v>
       </c>
       <c r="D49" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E49" t="n">
-        <v>3280815</v>
+        <v>56</v>
       </c>
       <c r="F49" t="n">
-        <v>56</v>
+        <v>837</v>
       </c>
       <c r="G49" t="n">
-        <v>837</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1833,18 +1684,15 @@
         <v>26</v>
       </c>
       <c r="D50" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E50" t="n">
-        <v>3280815</v>
+        <v>23</v>
       </c>
       <c r="F50" t="n">
-        <v>23</v>
+        <v>930</v>
       </c>
       <c r="G50" t="n">
-        <v>930</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1861,18 +1709,15 @@
         <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E51" t="n">
-        <v>3280815</v>
+        <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>25</v>
+        <v>1307</v>
       </c>
       <c r="G51" t="n">
-        <v>1307</v>
-      </c>
-      <c r="H51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1889,18 +1734,15 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E52" t="n">
-        <v>3280815</v>
+        <v>53</v>
       </c>
       <c r="F52" t="n">
-        <v>53</v>
+        <v>1336</v>
       </c>
       <c r="G52" t="n">
-        <v>1336</v>
-      </c>
-      <c r="H52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1917,18 +1759,15 @@
         <v>65</v>
       </c>
       <c r="D53" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E53" t="n">
-        <v>3280815</v>
+        <v>54</v>
       </c>
       <c r="F53" t="n">
-        <v>54</v>
+        <v>1908</v>
       </c>
       <c r="G53" t="n">
-        <v>1908</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1945,18 +1784,15 @@
         <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E54" t="n">
-        <v>3280815</v>
+        <v>32</v>
       </c>
       <c r="F54" t="n">
-        <v>32</v>
+        <v>1154</v>
       </c>
       <c r="G54" t="n">
-        <v>1154</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1973,18 +1809,15 @@
         <v>49</v>
       </c>
       <c r="D55" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E55" t="n">
-        <v>3280815</v>
+        <v>35</v>
       </c>
       <c r="F55" t="n">
-        <v>35</v>
+        <v>992</v>
       </c>
       <c r="G55" t="n">
-        <v>992</v>
-      </c>
-      <c r="H55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2001,18 +1834,15 @@
         <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E56" t="n">
-        <v>3280815</v>
+        <v>23</v>
       </c>
       <c r="F56" t="n">
-        <v>23</v>
+        <v>781</v>
       </c>
       <c r="G56" t="n">
-        <v>781</v>
-      </c>
-      <c r="H56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2029,18 +1859,15 @@
         <v>92</v>
       </c>
       <c r="D57" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E57" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F57" t="n">
-        <v>28</v>
+        <v>1527</v>
       </c>
       <c r="G57" t="n">
-        <v>1527</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2057,18 +1884,15 @@
         <v>80</v>
       </c>
       <c r="D58" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E58" t="n">
-        <v>3280815</v>
+        <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>17</v>
+        <v>1663</v>
       </c>
       <c r="G58" t="n">
-        <v>1663</v>
-      </c>
-      <c r="H58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2085,18 +1909,15 @@
         <v>24</v>
       </c>
       <c r="D59" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E59" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F59" t="n">
-        <v>28</v>
+        <v>1385</v>
       </c>
       <c r="G59" t="n">
-        <v>1385</v>
-      </c>
-      <c r="H59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +1934,15 @@
         <v>58</v>
       </c>
       <c r="D60" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E60" t="n">
-        <v>3280815</v>
+        <v>24</v>
       </c>
       <c r="F60" t="n">
-        <v>24</v>
+        <v>605</v>
       </c>
       <c r="G60" t="n">
-        <v>605</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2141,18 +1959,15 @@
         <v>18</v>
       </c>
       <c r="D61" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E61" t="n">
-        <v>3280815</v>
+        <v>46</v>
       </c>
       <c r="F61" t="n">
-        <v>46</v>
+        <v>1145</v>
       </c>
       <c r="G61" t="n">
-        <v>1145</v>
-      </c>
-      <c r="H61" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2169,18 +1984,15 @@
         <v>69</v>
       </c>
       <c r="D62" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E62" t="n">
-        <v>3280815</v>
+        <v>30</v>
       </c>
       <c r="F62" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="G62" t="n">
-        <v>450</v>
-      </c>
-      <c r="H62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2197,18 +2009,15 @@
         <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E63" t="n">
-        <v>3280815</v>
+        <v>56</v>
       </c>
       <c r="F63" t="n">
-        <v>56</v>
+        <v>918</v>
       </c>
       <c r="G63" t="n">
-        <v>918</v>
-      </c>
-      <c r="H63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2225,18 +2034,15 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E64" t="n">
-        <v>3280815</v>
+        <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>17</v>
+        <v>1196</v>
       </c>
       <c r="G64" t="n">
-        <v>1196</v>
-      </c>
-      <c r="H64" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2253,18 +2059,15 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E65" t="n">
-        <v>3280815</v>
+        <v>26</v>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>1695</v>
       </c>
       <c r="G65" t="n">
-        <v>1695</v>
-      </c>
-      <c r="H65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2281,18 +2084,15 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E66" t="n">
-        <v>3280815</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>604</v>
       </c>
       <c r="G66" t="n">
-        <v>604</v>
-      </c>
-      <c r="H66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2309,18 +2109,15 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E67" t="n">
-        <v>3280815</v>
+        <v>99</v>
       </c>
       <c r="F67" t="n">
-        <v>99</v>
+        <v>1198</v>
       </c>
       <c r="G67" t="n">
-        <v>1198</v>
-      </c>
-      <c r="H67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2337,18 +2134,15 @@
         <v>27</v>
       </c>
       <c r="D68" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E68" t="n">
-        <v>3280815</v>
+        <v>47</v>
       </c>
       <c r="F68" t="n">
-        <v>47</v>
+        <v>1293</v>
       </c>
       <c r="G68" t="n">
-        <v>1293</v>
-      </c>
-      <c r="H68" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2365,18 +2159,15 @@
         <v>24</v>
       </c>
       <c r="D69" t="n">
-        <v>81.48</v>
+        <v>3280815</v>
       </c>
       <c r="E69" t="n">
-        <v>3280815</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
-        <v>8</v>
+        <v>1036</v>
       </c>
       <c r="G69" t="n">
-        <v>1036</v>
-      </c>
-      <c r="H69" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2393,18 +2184,15 @@
         <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>81.48</v>
+        <v>3280815</v>
       </c>
       <c r="E70" t="n">
-        <v>3280815</v>
+        <v>54</v>
       </c>
       <c r="F70" t="n">
-        <v>54</v>
+        <v>1133</v>
       </c>
       <c r="G70" t="n">
-        <v>1133</v>
-      </c>
-      <c r="H70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2421,18 +2209,15 @@
         <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>81.48</v>
+        <v>3280815</v>
       </c>
       <c r="E71" t="n">
-        <v>3280815</v>
+        <v>60</v>
       </c>
       <c r="F71" t="n">
-        <v>60</v>
+        <v>929</v>
       </c>
       <c r="G71" t="n">
-        <v>929</v>
-      </c>
-      <c r="H71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2449,18 +2234,15 @@
         <v>37</v>
       </c>
       <c r="D72" t="n">
-        <v>79.63</v>
+        <v>3280815</v>
       </c>
       <c r="E72" t="n">
-        <v>3280815</v>
+        <v>44</v>
       </c>
       <c r="F72" t="n">
-        <v>44</v>
+        <v>1430</v>
       </c>
       <c r="G72" t="n">
-        <v>1430</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2477,18 +2259,15 @@
         <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E73" t="n">
-        <v>3280815</v>
+        <v>64</v>
       </c>
       <c r="F73" t="n">
-        <v>64</v>
+        <v>1339</v>
       </c>
       <c r="G73" t="n">
-        <v>1339</v>
-      </c>
-      <c r="H73" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2505,18 +2284,15 @@
         <v>31</v>
       </c>
       <c r="D74" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E74" t="n">
-        <v>3280815</v>
+        <v>19</v>
       </c>
       <c r="F74" t="n">
-        <v>19</v>
+        <v>1379</v>
       </c>
       <c r="G74" t="n">
-        <v>1379</v>
-      </c>
-      <c r="H74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2309,15 @@
         <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E75" t="n">
-        <v>3280815</v>
+        <v>81</v>
       </c>
       <c r="F75" t="n">
-        <v>81</v>
+        <v>1304</v>
       </c>
       <c r="G75" t="n">
-        <v>1304</v>
-      </c>
-      <c r="H75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2561,18 +2334,15 @@
         <v>14</v>
       </c>
       <c r="D76" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E76" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F76" t="n">
-        <v>28</v>
+        <v>1488</v>
       </c>
       <c r="G76" t="n">
-        <v>1488</v>
-      </c>
-      <c r="H76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2589,18 +2359,15 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E77" t="n">
-        <v>3280815</v>
+        <v>58</v>
       </c>
       <c r="F77" t="n">
-        <v>58</v>
+        <v>2668</v>
       </c>
       <c r="G77" t="n">
-        <v>2668</v>
-      </c>
-      <c r="H77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,18 +2384,15 @@
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E78" t="n">
-        <v>3280815</v>
+        <v>35</v>
       </c>
       <c r="F78" t="n">
-        <v>35</v>
+        <v>1636</v>
       </c>
       <c r="G78" t="n">
-        <v>1636</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2645,18 +2409,15 @@
         <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E79" t="n">
-        <v>3280815</v>
+        <v>39</v>
       </c>
       <c r="F79" t="n">
-        <v>39</v>
+        <v>1373</v>
       </c>
       <c r="G79" t="n">
-        <v>1373</v>
-      </c>
-      <c r="H79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2673,18 +2434,15 @@
         <v>22</v>
       </c>
       <c r="D80" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E80" t="n">
-        <v>3280815</v>
+        <v>18</v>
       </c>
       <c r="F80" t="n">
-        <v>18</v>
+        <v>510</v>
       </c>
       <c r="G80" t="n">
-        <v>510</v>
-      </c>
-      <c r="H80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2701,18 +2459,15 @@
         <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E81" t="n">
-        <v>3280815</v>
+        <v>48</v>
       </c>
       <c r="F81" t="n">
-        <v>48</v>
+        <v>1187</v>
       </c>
       <c r="G81" t="n">
-        <v>1187</v>
-      </c>
-      <c r="H81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2729,18 +2484,15 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E82" t="n">
-        <v>3280815</v>
+        <v>18</v>
       </c>
       <c r="F82" t="n">
-        <v>18</v>
+        <v>838</v>
       </c>
       <c r="G82" t="n">
-        <v>838</v>
-      </c>
-      <c r="H82" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2757,18 +2509,15 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E83" t="n">
-        <v>3280815</v>
+        <v>16</v>
       </c>
       <c r="F83" t="n">
-        <v>16</v>
+        <v>402</v>
       </c>
       <c r="G83" t="n">
-        <v>402</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2785,18 +2534,15 @@
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E84" t="n">
-        <v>3280815</v>
+        <v>25</v>
       </c>
       <c r="F84" t="n">
-        <v>25</v>
+        <v>594</v>
       </c>
       <c r="G84" t="n">
-        <v>594</v>
-      </c>
-      <c r="H84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2813,18 +2559,15 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E85" t="n">
-        <v>3280815</v>
+        <v>23</v>
       </c>
       <c r="F85" t="n">
-        <v>23</v>
+        <v>583</v>
       </c>
       <c r="G85" t="n">
-        <v>583</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2841,18 +2584,15 @@
         <v>27</v>
       </c>
       <c r="D86" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E86" t="n">
-        <v>3280815</v>
+        <v>37</v>
       </c>
       <c r="F86" t="n">
-        <v>37</v>
+        <v>1456</v>
       </c>
       <c r="G86" t="n">
-        <v>1456</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2869,18 +2609,15 @@
         <v>23</v>
       </c>
       <c r="D87" t="n">
-        <v>65.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E87" t="n">
-        <v>3280815</v>
+        <v>22</v>
       </c>
       <c r="F87" t="n">
-        <v>22</v>
+        <v>1029</v>
       </c>
       <c r="G87" t="n">
-        <v>1029</v>
-      </c>
-      <c r="H87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2897,18 +2634,15 @@
         <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>65.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E88" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F88" t="n">
-        <v>28</v>
+        <v>1027</v>
       </c>
       <c r="G88" t="n">
-        <v>1027</v>
-      </c>
-      <c r="H88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2925,18 +2659,15 @@
         <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>65.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E89" t="n">
-        <v>3280815</v>
+        <v>31</v>
       </c>
       <c r="F89" t="n">
-        <v>31</v>
+        <v>597</v>
       </c>
       <c r="G89" t="n">
-        <v>597</v>
-      </c>
-      <c r="H89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2953,18 +2684,15 @@
         <v>14</v>
       </c>
       <c r="D90" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E90" t="n">
-        <v>3280815</v>
+        <v>26</v>
       </c>
       <c r="F90" t="n">
-        <v>26</v>
+        <v>680</v>
       </c>
       <c r="G90" t="n">
-        <v>680</v>
-      </c>
-      <c r="H90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2981,18 +2709,15 @@
         <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E91" t="n">
-        <v>3280815</v>
+        <v>22</v>
       </c>
       <c r="F91" t="n">
-        <v>22</v>
+        <v>822</v>
       </c>
       <c r="G91" t="n">
-        <v>822</v>
-      </c>
-      <c r="H91" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3009,18 +2734,15 @@
         <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E92" t="n">
-        <v>3280815</v>
+        <v>29</v>
       </c>
       <c r="F92" t="n">
-        <v>29</v>
+        <v>1230</v>
       </c>
       <c r="G92" t="n">
-        <v>1230</v>
-      </c>
-      <c r="H92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3037,18 +2759,15 @@
         <v>43</v>
       </c>
       <c r="D93" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E93" t="n">
-        <v>3280815</v>
+        <v>12</v>
       </c>
       <c r="F93" t="n">
-        <v>12</v>
+        <v>754</v>
       </c>
       <c r="G93" t="n">
-        <v>754</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3065,18 +2784,15 @@
         <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E94" t="n">
-        <v>3280815</v>
+        <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>17</v>
+        <v>948</v>
       </c>
       <c r="G94" t="n">
-        <v>948</v>
-      </c>
-      <c r="H94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3090,21 +2806,18 @@
         <v>2606</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D95" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E95" t="n">
-        <v>3280815</v>
+        <v>21</v>
       </c>
       <c r="F95" t="n">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="G95" t="n">
-        <v>886</v>
-      </c>
-      <c r="H95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,22 +2831,19 @@
         <v>2606</v>
       </c>
       <c r="C96" t="n">
+        <v>20</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E96" t="n">
+        <v>20</v>
+      </c>
+      <c r="F96" t="n">
+        <v>928</v>
+      </c>
+      <c r="G96" t="n">
         <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E96" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="F96" t="n">
-        <v>20</v>
-      </c>
-      <c r="G96" t="n">
-        <v>928</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3149,18 +2859,15 @@
         <v>98</v>
       </c>
       <c r="D97" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E97" t="n">
-        <v>3280815</v>
+        <v>55</v>
       </c>
       <c r="F97" t="n">
-        <v>55</v>
+        <v>2166</v>
       </c>
       <c r="G97" t="n">
-        <v>2166</v>
-      </c>
-      <c r="H97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,18 +2884,15 @@
         <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E98" t="n">
-        <v>3280815</v>
+        <v>26</v>
       </c>
       <c r="F98" t="n">
-        <v>26</v>
+        <v>694</v>
       </c>
       <c r="G98" t="n">
-        <v>694</v>
-      </c>
-      <c r="H98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3205,18 +2909,15 @@
         <v>47</v>
       </c>
       <c r="D99" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E99" t="n">
-        <v>3280815</v>
+        <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>14</v>
+        <v>865</v>
       </c>
       <c r="G99" t="n">
-        <v>865</v>
-      </c>
-      <c r="H99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +2934,15 @@
         <v>57</v>
       </c>
       <c r="D100" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E100" t="n">
-        <v>3280815</v>
+        <v>37</v>
       </c>
       <c r="F100" t="n">
-        <v>37</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3261,18 +2959,15 @@
         <v>61</v>
       </c>
       <c r="D101" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E101" t="n">
-        <v>3280815</v>
+        <v>19</v>
       </c>
       <c r="F101" t="n">
-        <v>19</v>
+        <v>792</v>
       </c>
       <c r="G101" t="n">
-        <v>792</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3286,22 +2981,19 @@
         <v>2893</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D102" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E102" t="n">
-        <v>3280815</v>
+        <v>30</v>
       </c>
       <c r="F102" t="n">
-        <v>30</v>
+        <v>1103</v>
       </c>
       <c r="G102" t="n">
-        <v>1103</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3314,22 +3006,19 @@
         <v>2893</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D103" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E103" t="n">
-        <v>3280815</v>
+        <v>25</v>
       </c>
       <c r="F103" t="n">
-        <v>25</v>
+        <v>890</v>
       </c>
       <c r="G103" t="n">
-        <v>890</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3345,18 +3034,15 @@
         <v>147</v>
       </c>
       <c r="D104" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E104" t="n">
-        <v>3280815</v>
+        <v>43</v>
       </c>
       <c r="F104" t="n">
-        <v>43</v>
+        <v>2323</v>
       </c>
       <c r="G104" t="n">
-        <v>2323</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3373,18 +3059,15 @@
         <v>45</v>
       </c>
       <c r="D105" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E105" t="n">
-        <v>3280815</v>
+        <v>16</v>
       </c>
       <c r="F105" t="n">
-        <v>16</v>
+        <v>815</v>
       </c>
       <c r="G105" t="n">
-        <v>815</v>
-      </c>
-      <c r="H105" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3401,18 +3084,15 @@
         <v>56</v>
       </c>
       <c r="D106" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E106" t="n">
-        <v>3280815</v>
+        <v>19</v>
       </c>
       <c r="F106" t="n">
-        <v>19</v>
+        <v>770</v>
       </c>
       <c r="G106" t="n">
-        <v>770</v>
-      </c>
-      <c r="H106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3429,18 +3109,15 @@
         <v>33</v>
       </c>
       <c r="D107" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E107" t="n">
-        <v>3280815</v>
+        <v>22</v>
       </c>
       <c r="F107" t="n">
-        <v>22</v>
+        <v>1035</v>
       </c>
       <c r="G107" t="n">
-        <v>1035</v>
-      </c>
-      <c r="H107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3457,18 +3134,15 @@
         <v>99</v>
       </c>
       <c r="D108" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E108" t="n">
-        <v>3280815</v>
+        <v>22</v>
       </c>
       <c r="F108" t="n">
-        <v>22</v>
+        <v>916</v>
       </c>
       <c r="G108" t="n">
-        <v>916</v>
-      </c>
-      <c r="H108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,22 +3156,19 @@
         <v>3273</v>
       </c>
       <c r="C109" t="n">
+        <v>76</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E109" t="n">
+        <v>24</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1171</v>
+      </c>
+      <c r="G109" t="n">
         <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E109" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="F109" t="n">
-        <v>24</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1171</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3510,22 +3181,19 @@
         <v>3273</v>
       </c>
       <c r="C110" t="n">
+        <v>61</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E110" t="n">
+        <v>20</v>
+      </c>
+      <c r="F110" t="n">
+        <v>941</v>
+      </c>
+      <c r="G110" t="n">
         <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E110" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="F110" t="n">
-        <v>20</v>
-      </c>
-      <c r="G110" t="n">
-        <v>941</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3541,18 +3209,15 @@
         <v>252</v>
       </c>
       <c r="D111" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E111" t="n">
-        <v>3280815</v>
+        <v>29</v>
       </c>
       <c r="F111" t="n">
-        <v>29</v>
+        <v>2604</v>
       </c>
       <c r="G111" t="n">
-        <v>2604</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3569,18 +3234,15 @@
         <v>63</v>
       </c>
       <c r="D112" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E112" t="n">
-        <v>3280815</v>
+        <v>15</v>
       </c>
       <c r="F112" t="n">
-        <v>15</v>
+        <v>1324</v>
       </c>
       <c r="G112" t="n">
-        <v>1324</v>
-      </c>
-      <c r="H112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,18 +3259,15 @@
         <v>88</v>
       </c>
       <c r="D113" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E113" t="n">
-        <v>3280815</v>
+        <v>12</v>
       </c>
       <c r="F113" t="n">
-        <v>12</v>
+        <v>1315</v>
       </c>
       <c r="G113" t="n">
-        <v>1315</v>
-      </c>
-      <c r="H113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3625,18 +3284,15 @@
         <v>120</v>
       </c>
       <c r="D114" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E114" t="n">
-        <v>3280815</v>
+        <v>25</v>
       </c>
       <c r="F114" t="n">
-        <v>25</v>
+        <v>1145</v>
       </c>
       <c r="G114" t="n">
-        <v>1145</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3653,18 +3309,15 @@
         <v>139</v>
       </c>
       <c r="D115" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E115" t="n">
-        <v>3280815</v>
+        <v>16</v>
       </c>
       <c r="F115" t="n">
-        <v>16</v>
+        <v>1130</v>
       </c>
       <c r="G115" t="n">
-        <v>1130</v>
-      </c>
-      <c r="H115" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3678,22 +3331,19 @@
         <v>3935</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D116" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E116" t="n">
-        <v>3280815</v>
+        <v>19</v>
       </c>
       <c r="F116" t="n">
-        <v>19</v>
+        <v>1503</v>
       </c>
       <c r="G116" t="n">
-        <v>1503</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3706,22 +3356,19 @@
         <v>3935</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D117" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E117" t="n">
-        <v>3280815</v>
+        <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>17</v>
+        <v>1283</v>
       </c>
       <c r="G117" t="n">
-        <v>1283</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3737,18 +3384,15 @@
         <v>390</v>
       </c>
       <c r="D118" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E118" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F118" t="n">
-        <v>28</v>
+        <v>3244</v>
       </c>
       <c r="G118" t="n">
-        <v>3244</v>
-      </c>
-      <c r="H118" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3765,18 +3409,15 @@
         <v>128</v>
       </c>
       <c r="D119" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E119" t="n">
-        <v>3280815</v>
+        <v>36</v>
       </c>
       <c r="F119" t="n">
-        <v>36</v>
+        <v>1177</v>
       </c>
       <c r="G119" t="n">
-        <v>1177</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3793,18 +3434,15 @@
         <v>153</v>
       </c>
       <c r="D120" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E120" t="n">
-        <v>3280815</v>
+        <v>30</v>
       </c>
       <c r="F120" t="n">
-        <v>30</v>
+        <v>1157</v>
       </c>
       <c r="G120" t="n">
-        <v>1157</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3821,18 +3459,15 @@
         <v>182</v>
       </c>
       <c r="D121" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E121" t="n">
-        <v>3280815</v>
+        <v>93</v>
       </c>
       <c r="F121" t="n">
-        <v>93</v>
+        <v>1759</v>
       </c>
       <c r="G121" t="n">
-        <v>1759</v>
-      </c>
-      <c r="H121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3849,18 +3484,15 @@
         <v>174</v>
       </c>
       <c r="D122" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E122" t="n">
-        <v>3280815</v>
+        <v>25</v>
       </c>
       <c r="F122" t="n">
-        <v>25</v>
+        <v>1851</v>
       </c>
       <c r="G122" t="n">
-        <v>1851</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3874,22 +3506,19 @@
         <v>4962</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D123" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E123" t="n">
-        <v>3280815</v>
+        <v>42</v>
       </c>
       <c r="F123" t="n">
-        <v>42</v>
+        <v>1837</v>
       </c>
       <c r="G123" t="n">
-        <v>1837</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3902,21 +3531,18 @@
         <v>4962</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D124" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E124" t="n">
-        <v>3280815</v>
+        <v>45</v>
       </c>
       <c r="F124" t="n">
-        <v>45</v>
+        <v>1556</v>
       </c>
       <c r="G124" t="n">
-        <v>1556</v>
-      </c>
-      <c r="H124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +3559,15 @@
         <v>496</v>
       </c>
       <c r="D125" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E125" t="n">
-        <v>3280815</v>
+        <v>48</v>
       </c>
       <c r="F125" t="n">
-        <v>48</v>
+        <v>3650</v>
       </c>
       <c r="G125" t="n">
-        <v>3650</v>
-      </c>
-      <c r="H125" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3961,18 +3584,15 @@
         <v>163</v>
       </c>
       <c r="D126" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E126" t="n">
-        <v>3280815</v>
+        <v>95</v>
       </c>
       <c r="F126" t="n">
-        <v>95</v>
+        <v>1329</v>
       </c>
       <c r="G126" t="n">
-        <v>1329</v>
-      </c>
-      <c r="H126" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3989,18 +3609,15 @@
         <v>248</v>
       </c>
       <c r="D127" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E127" t="n">
-        <v>3280815</v>
+        <v>76</v>
       </c>
       <c r="F127" t="n">
-        <v>76</v>
+        <v>1628</v>
       </c>
       <c r="G127" t="n">
-        <v>1628</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4017,18 +3634,15 @@
         <v>217</v>
       </c>
       <c r="D128" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E128" t="n">
-        <v>3280815</v>
+        <v>46</v>
       </c>
       <c r="F128" t="n">
-        <v>46</v>
+        <v>1871</v>
       </c>
       <c r="G128" t="n">
-        <v>1871</v>
-      </c>
-      <c r="H128" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4045,18 +3659,15 @@
         <v>316</v>
       </c>
       <c r="D129" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E129" t="n">
-        <v>3280815</v>
+        <v>222</v>
       </c>
       <c r="F129" t="n">
-        <v>222</v>
+        <v>1796</v>
       </c>
       <c r="G129" t="n">
-        <v>1796</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4073,19 +3684,16 @@
         <v>317</v>
       </c>
       <c r="D130" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E130" t="n">
-        <v>3280815</v>
+        <v>97</v>
       </c>
       <c r="F130" t="n">
-        <v>97</v>
+        <v>2054</v>
       </c>
       <c r="G130" t="n">
-        <v>2054</v>
-      </c>
-      <c r="H130" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -4101,19 +3709,16 @@
         <v>158</v>
       </c>
       <c r="D131" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E131" t="n">
-        <v>3280815</v>
+        <v>107</v>
       </c>
       <c r="F131" t="n">
-        <v>107</v>
+        <v>1735</v>
       </c>
       <c r="G131" t="n">
-        <v>1735</v>
-      </c>
-      <c r="H131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -4129,18 +3734,15 @@
         <v>104</v>
       </c>
       <c r="D132" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E132" t="n">
-        <v>3280815</v>
+        <v>142</v>
       </c>
       <c r="F132" t="n">
-        <v>142</v>
+        <v>3526</v>
       </c>
       <c r="G132" t="n">
-        <v>3526</v>
-      </c>
-      <c r="H132" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4154,22 +3756,19 @@
         <v>6981</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D133" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E133" t="n">
-        <v>3280815</v>
+        <v>122</v>
       </c>
       <c r="F133" t="n">
-        <v>122</v>
+        <v>2196</v>
       </c>
       <c r="G133" t="n">
-        <v>2196</v>
-      </c>
-      <c r="H133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
@@ -4185,18 +3784,15 @@
         <v>430</v>
       </c>
       <c r="D134" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E134" t="n">
-        <v>3280815</v>
+        <v>156</v>
       </c>
       <c r="F134" t="n">
-        <v>156</v>
+        <v>2808</v>
       </c>
       <c r="G134" t="n">
-        <v>2808</v>
-      </c>
-      <c r="H134" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4213,19 +3809,16 @@
         <v>270</v>
       </c>
       <c r="D135" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E135" t="n">
-        <v>3280815</v>
+        <v>124</v>
       </c>
       <c r="F135" t="n">
-        <v>124</v>
+        <v>2463</v>
       </c>
       <c r="G135" t="n">
-        <v>2463</v>
-      </c>
-      <c r="H135" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -4241,18 +3834,15 @@
         <v>227</v>
       </c>
       <c r="D136" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E136" t="n">
-        <v>3280815</v>
+        <v>277</v>
       </c>
       <c r="F136" t="n">
-        <v>277</v>
+        <v>3558</v>
       </c>
       <c r="G136" t="n">
-        <v>3558</v>
-      </c>
-      <c r="H136" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4269,18 +3859,15 @@
         <v>253</v>
       </c>
       <c r="D137" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E137" t="n">
-        <v>3280815</v>
+        <v>164</v>
       </c>
       <c r="F137" t="n">
-        <v>164</v>
+        <v>2910</v>
       </c>
       <c r="G137" t="n">
-        <v>2910</v>
-      </c>
-      <c r="H137" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4297,19 +3884,16 @@
         <v>179</v>
       </c>
       <c r="D138" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E138" t="n">
-        <v>3280815</v>
+        <v>168</v>
       </c>
       <c r="F138" t="n">
-        <v>168</v>
+        <v>2787</v>
       </c>
       <c r="G138" t="n">
-        <v>2787</v>
-      </c>
-      <c r="H138" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
@@ -4325,18 +3909,15 @@
         <v>139</v>
       </c>
       <c r="D139" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E139" t="n">
-        <v>3280815</v>
+        <v>177</v>
       </c>
       <c r="F139" t="n">
-        <v>177</v>
+        <v>2905</v>
       </c>
       <c r="G139" t="n">
-        <v>2905</v>
-      </c>
-      <c r="H139" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4353,18 +3934,15 @@
         <v>308</v>
       </c>
       <c r="D140" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E140" t="n">
-        <v>3280815</v>
+        <v>390</v>
       </c>
       <c r="F140" t="n">
-        <v>390</v>
+        <v>6142</v>
       </c>
       <c r="G140" t="n">
-        <v>6142</v>
-      </c>
-      <c r="H140" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4381,18 +3959,15 @@
         <v>328</v>
       </c>
       <c r="D141" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E141" t="n">
-        <v>3280815</v>
+        <v>157</v>
       </c>
       <c r="F141" t="n">
-        <v>157</v>
+        <v>1474</v>
       </c>
       <c r="G141" t="n">
-        <v>1474</v>
-      </c>
-      <c r="H141" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4409,18 +3984,15 @@
         <v>347</v>
       </c>
       <c r="D142" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E142" t="n">
-        <v>3280815</v>
+        <v>208</v>
       </c>
       <c r="F142" t="n">
-        <v>208</v>
+        <v>1784</v>
       </c>
       <c r="G142" t="n">
-        <v>1784</v>
-      </c>
-      <c r="H142" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4437,18 +4009,15 @@
         <v>305</v>
       </c>
       <c r="D143" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E143" t="n">
-        <v>3280815</v>
+        <v>188</v>
       </c>
       <c r="F143" t="n">
-        <v>188</v>
+        <v>1631</v>
       </c>
       <c r="G143" t="n">
-        <v>1631</v>
-      </c>
-      <c r="H143" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4462,22 +4031,19 @@
         <v>9767</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="D144" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E144" t="n">
-        <v>3280815</v>
+        <v>224</v>
       </c>
       <c r="F144" t="n">
-        <v>224</v>
+        <v>2787</v>
       </c>
       <c r="G144" t="n">
-        <v>2787</v>
-      </c>
-      <c r="H144" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
@@ -4490,22 +4056,19 @@
         <v>9767</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D145" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E145" t="n">
-        <v>3280815</v>
+        <v>233</v>
       </c>
       <c r="F145" t="n">
-        <v>233</v>
+        <v>2763</v>
       </c>
       <c r="G145" t="n">
-        <v>2763</v>
-      </c>
-      <c r="H145" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
@@ -4521,18 +4084,15 @@
         <v>731</v>
       </c>
       <c r="D146" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E146" t="n">
-        <v>3280815</v>
+        <v>375</v>
       </c>
       <c r="F146" t="n">
-        <v>375</v>
+        <v>3713</v>
       </c>
       <c r="G146" t="n">
-        <v>3713</v>
-      </c>
-      <c r="H146" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4549,18 +4109,15 @@
         <v>268</v>
       </c>
       <c r="D147" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E147" t="n">
-        <v>3280815</v>
+        <v>290</v>
       </c>
       <c r="F147" t="n">
-        <v>290</v>
+        <v>1518</v>
       </c>
       <c r="G147" t="n">
-        <v>1518</v>
-      </c>
-      <c r="H147" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4577,18 +4134,15 @@
         <v>361</v>
       </c>
       <c r="D148" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E148" t="n">
-        <v>3280815</v>
+        <v>221</v>
       </c>
       <c r="F148" t="n">
-        <v>221</v>
+        <v>1596</v>
       </c>
       <c r="G148" t="n">
-        <v>1596</v>
-      </c>
-      <c r="H148" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4605,18 +4159,15 @@
         <v>317</v>
       </c>
       <c r="D149" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E149" t="n">
-        <v>3280815</v>
+        <v>145</v>
       </c>
       <c r="F149" t="n">
-        <v>145</v>
+        <v>1844</v>
       </c>
       <c r="G149" t="n">
-        <v>1844</v>
-      </c>
-      <c r="H149" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4633,18 +4184,15 @@
         <v>432</v>
       </c>
       <c r="D150" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E150" t="n">
-        <v>3280815</v>
+        <v>373</v>
       </c>
       <c r="F150" t="n">
-        <v>373</v>
+        <v>1739</v>
       </c>
       <c r="G150" t="n">
-        <v>1739</v>
-      </c>
-      <c r="H150" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4658,21 +4206,18 @@
         <v>11876</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="D151" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E151" t="n">
-        <v>3280815</v>
+        <v>280</v>
       </c>
       <c r="F151" t="n">
-        <v>280</v>
+        <v>2082</v>
       </c>
       <c r="G151" t="n">
-        <v>2082</v>
-      </c>
-      <c r="H151" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4689,18 +4234,15 @@
         <v>420</v>
       </c>
       <c r="D152" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E152" t="n">
-        <v>3280815</v>
+        <v>261</v>
       </c>
       <c r="F152" t="n">
-        <v>261</v>
+        <v>1755</v>
       </c>
       <c r="G152" t="n">
-        <v>1755</v>
-      </c>
-      <c r="H152" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4717,18 +4259,15 @@
         <v>166</v>
       </c>
       <c r="D153" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E153" t="n">
-        <v>3280815</v>
+        <v>400</v>
       </c>
       <c r="F153" t="n">
-        <v>400</v>
+        <v>3061</v>
       </c>
       <c r="G153" t="n">
-        <v>3061</v>
-      </c>
-      <c r="H153" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4745,18 +4284,15 @@
         <v>394</v>
       </c>
       <c r="D154" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E154" t="n">
-        <v>3280815</v>
+        <v>233</v>
       </c>
       <c r="F154" t="n">
-        <v>233</v>
+        <v>1569</v>
       </c>
       <c r="G154" t="n">
-        <v>1569</v>
-      </c>
-      <c r="H154" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4773,18 +4309,15 @@
         <v>282</v>
       </c>
       <c r="D155" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E155" t="n">
-        <v>3280815</v>
+        <v>247</v>
       </c>
       <c r="F155" t="n">
-        <v>247</v>
+        <v>1586</v>
       </c>
       <c r="G155" t="n">
-        <v>1586</v>
-      </c>
-      <c r="H155" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4801,18 +4334,15 @@
         <v>258</v>
       </c>
       <c r="D156" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E156" t="n">
-        <v>3280815</v>
+        <v>203</v>
       </c>
       <c r="F156" t="n">
-        <v>203</v>
+        <v>1464</v>
       </c>
       <c r="G156" t="n">
-        <v>1464</v>
-      </c>
-      <c r="H156" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4829,18 +4359,15 @@
         <v>291</v>
       </c>
       <c r="D157" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E157" t="n">
-        <v>3280815</v>
+        <v>331</v>
       </c>
       <c r="F157" t="n">
-        <v>331</v>
+        <v>1067</v>
       </c>
       <c r="G157" t="n">
-        <v>1067</v>
-      </c>
-      <c r="H157" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4854,22 +4381,19 @@
         <v>13687</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="D158" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E158" t="n">
-        <v>3280815</v>
+        <v>282</v>
       </c>
       <c r="F158" t="n">
-        <v>282</v>
+        <v>1749</v>
       </c>
       <c r="G158" t="n">
-        <v>1749</v>
-      </c>
-      <c r="H158" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -4882,21 +4406,18 @@
         <v>13687</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D159" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E159" t="n">
-        <v>3280815</v>
+        <v>259</v>
       </c>
       <c r="F159" t="n">
-        <v>259</v>
+        <v>1487</v>
       </c>
       <c r="G159" t="n">
-        <v>1487</v>
-      </c>
-      <c r="H159" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4913,18 +4434,15 @@
         <v>811</v>
       </c>
       <c r="D160" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E160" t="n">
-        <v>3280815</v>
+        <v>786</v>
       </c>
       <c r="F160" t="n">
-        <v>786</v>
+        <v>4256</v>
       </c>
       <c r="G160" t="n">
-        <v>4256</v>
-      </c>
-      <c r="H160" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4941,18 +4459,15 @@
         <v>210</v>
       </c>
       <c r="D161" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E161" t="n">
-        <v>3280815</v>
+        <v>252</v>
       </c>
       <c r="F161" t="n">
-        <v>252</v>
+        <v>2130</v>
       </c>
       <c r="G161" t="n">
-        <v>2130</v>
-      </c>
-      <c r="H161" t="n">
         <v>22</v>
       </c>
     </row>
@@ -4969,18 +4484,15 @@
         <v>253</v>
       </c>
       <c r="D162" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E162" t="n">
-        <v>3280815</v>
+        <v>416</v>
       </c>
       <c r="F162" t="n">
-        <v>416</v>
+        <v>1571</v>
       </c>
       <c r="G162" t="n">
-        <v>1571</v>
-      </c>
-      <c r="H162" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4997,18 +4509,15 @@
         <v>223</v>
       </c>
       <c r="D163" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E163" t="n">
-        <v>3280815</v>
+        <v>329</v>
       </c>
       <c r="F163" t="n">
-        <v>329</v>
+        <v>1539</v>
       </c>
       <c r="G163" t="n">
-        <v>1539</v>
-      </c>
-      <c r="H163" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5025,18 +4534,15 @@
         <v>351</v>
       </c>
       <c r="D164" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E164" t="n">
-        <v>3280815</v>
+        <v>188</v>
       </c>
       <c r="F164" t="n">
-        <v>188</v>
+        <v>2027</v>
       </c>
       <c r="G164" t="n">
-        <v>2027</v>
-      </c>
-      <c r="H164" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5053,19 +4559,16 @@
         <v>266</v>
       </c>
       <c r="D165" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E165" t="n">
-        <v>3280815</v>
+        <v>394</v>
       </c>
       <c r="F165" t="n">
-        <v>394</v>
+        <v>2304</v>
       </c>
       <c r="G165" t="n">
-        <v>2304</v>
-      </c>
-      <c r="H165" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -5078,22 +4581,19 @@
         <v>15801</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D166" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E166" t="n">
-        <v>3280815</v>
+        <v>315</v>
       </c>
       <c r="F166" t="n">
-        <v>315</v>
+        <v>1914</v>
       </c>
       <c r="G166" t="n">
-        <v>1914</v>
-      </c>
-      <c r="H166" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167">
@@ -5109,18 +4609,15 @@
         <v>310</v>
       </c>
       <c r="D167" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E167" t="n">
-        <v>3280815</v>
+        <v>512</v>
       </c>
       <c r="F167" t="n">
-        <v>512</v>
+        <v>3534</v>
       </c>
       <c r="G167" t="n">
-        <v>3534</v>
-      </c>
-      <c r="H167" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5137,18 +4634,15 @@
         <v>240</v>
       </c>
       <c r="D168" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E168" t="n">
-        <v>3280815</v>
+        <v>423</v>
       </c>
       <c r="F168" t="n">
-        <v>423</v>
+        <v>1734</v>
       </c>
       <c r="G168" t="n">
-        <v>1734</v>
-      </c>
-      <c r="H168" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5165,18 +4659,15 @@
         <v>340</v>
       </c>
       <c r="D169" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E169" t="n">
-        <v>3280815</v>
+        <v>432</v>
       </c>
       <c r="F169" t="n">
-        <v>432</v>
+        <v>2092</v>
       </c>
       <c r="G169" t="n">
-        <v>2092</v>
-      </c>
-      <c r="H169" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5193,18 +4684,15 @@
         <v>338</v>
       </c>
       <c r="D170" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E170" t="n">
-        <v>3280815</v>
+        <v>170</v>
       </c>
       <c r="F170" t="n">
-        <v>170</v>
+        <v>1888</v>
       </c>
       <c r="G170" t="n">
-        <v>1888</v>
-      </c>
-      <c r="H170" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5221,19 +4709,16 @@
         <v>367</v>
       </c>
       <c r="D171" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E171" t="n">
-        <v>3280815</v>
+        <v>370</v>
       </c>
       <c r="F171" t="n">
-        <v>370</v>
+        <v>2232</v>
       </c>
       <c r="G171" t="n">
-        <v>2232</v>
-      </c>
-      <c r="H171" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -5249,19 +4734,16 @@
         <v>319</v>
       </c>
       <c r="D172" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E172" t="n">
-        <v>3280815</v>
+        <v>381</v>
       </c>
       <c r="F172" t="n">
-        <v>381</v>
+        <v>2296</v>
       </c>
       <c r="G172" t="n">
-        <v>2296</v>
-      </c>
-      <c r="H172" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
@@ -5274,22 +4756,19 @@
         <v>17715</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D173" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E173" t="n">
-        <v>3280815</v>
+        <v>355</v>
       </c>
       <c r="F173" t="n">
-        <v>355</v>
+        <v>2048</v>
       </c>
       <c r="G173" t="n">
-        <v>2048</v>
-      </c>
-      <c r="H173" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
@@ -5305,18 +4784,15 @@
         <v>314</v>
       </c>
       <c r="D174" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E174" t="n">
-        <v>3280815</v>
+        <v>980</v>
       </c>
       <c r="F174" t="n">
-        <v>980</v>
+        <v>6046</v>
       </c>
       <c r="G174" t="n">
-        <v>6046</v>
-      </c>
-      <c r="H174" t="n">
         <v>32</v>
       </c>
     </row>
@@ -5333,18 +4809,15 @@
         <v>297</v>
       </c>
       <c r="D175" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E175" t="n">
-        <v>3280815</v>
+        <v>220</v>
       </c>
       <c r="F175" t="n">
-        <v>220</v>
+        <v>1971</v>
       </c>
       <c r="G175" t="n">
-        <v>1971</v>
-      </c>
-      <c r="H175" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5361,18 +4834,15 @@
         <v>283</v>
       </c>
       <c r="D176" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E176" t="n">
-        <v>3280815</v>
+        <v>255</v>
       </c>
       <c r="F176" t="n">
-        <v>255</v>
+        <v>1774</v>
       </c>
       <c r="G176" t="n">
-        <v>1774</v>
-      </c>
-      <c r="H176" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5389,18 +4859,15 @@
         <v>311</v>
       </c>
       <c r="D177" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E177" t="n">
-        <v>3280815</v>
+        <v>144</v>
       </c>
       <c r="F177" t="n">
-        <v>144</v>
+        <v>1938</v>
       </c>
       <c r="G177" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H177" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5417,18 +4884,15 @@
         <v>294</v>
       </c>
       <c r="D178" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E178" t="n">
-        <v>3280815</v>
+        <v>253</v>
       </c>
       <c r="F178" t="n">
-        <v>253</v>
+        <v>1900</v>
       </c>
       <c r="G178" t="n">
-        <v>1900</v>
-      </c>
-      <c r="H178" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5445,18 +4909,15 @@
         <v>336</v>
       </c>
       <c r="D179" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E179" t="n">
-        <v>3280815</v>
+        <v>125</v>
       </c>
       <c r="F179" t="n">
-        <v>125</v>
+        <v>1484</v>
       </c>
       <c r="G179" t="n">
-        <v>1484</v>
-      </c>
-      <c r="H179" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5473,18 +4934,15 @@
         <v>243</v>
       </c>
       <c r="D180" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E180" t="n">
-        <v>3280815</v>
+        <v>110</v>
       </c>
       <c r="F180" t="n">
-        <v>110</v>
+        <v>1151</v>
       </c>
       <c r="G180" t="n">
-        <v>1151</v>
-      </c>
-      <c r="H180" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5501,18 +4959,15 @@
         <v>171</v>
       </c>
       <c r="D181" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E181" t="n">
-        <v>3280815</v>
+        <v>127</v>
       </c>
       <c r="F181" t="n">
-        <v>127</v>
+        <v>1407</v>
       </c>
       <c r="G181" t="n">
-        <v>1407</v>
-      </c>
-      <c r="H181" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5529,18 +4984,15 @@
         <v>270</v>
       </c>
       <c r="D182" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E182" t="n">
-        <v>3280815</v>
+        <v>340</v>
       </c>
       <c r="F182" t="n">
-        <v>340</v>
+        <v>2201</v>
       </c>
       <c r="G182" t="n">
-        <v>2201</v>
-      </c>
-      <c r="H182" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5557,18 +5009,15 @@
         <v>283</v>
       </c>
       <c r="D183" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E183" t="n">
-        <v>3280815</v>
+        <v>191</v>
       </c>
       <c r="F183" t="n">
-        <v>191</v>
+        <v>2038</v>
       </c>
       <c r="G183" t="n">
-        <v>2038</v>
-      </c>
-      <c r="H183" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5585,18 +5034,15 @@
         <v>287</v>
       </c>
       <c r="D184" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E184" t="n">
-        <v>3280815</v>
+        <v>494</v>
       </c>
       <c r="F184" t="n">
-        <v>494</v>
+        <v>1785</v>
       </c>
       <c r="G184" t="n">
-        <v>1785</v>
-      </c>
-      <c r="H184" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5613,18 +5059,15 @@
         <v>338</v>
       </c>
       <c r="D185" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E185" t="n">
-        <v>3280815</v>
+        <v>356</v>
       </c>
       <c r="F185" t="n">
-        <v>356</v>
+        <v>2284</v>
       </c>
       <c r="G185" t="n">
-        <v>2284</v>
-      </c>
-      <c r="H185" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5641,18 +5084,15 @@
         <v>297</v>
       </c>
       <c r="D186" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E186" t="n">
-        <v>3280815</v>
+        <v>160</v>
       </c>
       <c r="F186" t="n">
-        <v>160</v>
+        <v>1518</v>
       </c>
       <c r="G186" t="n">
-        <v>1518</v>
-      </c>
-      <c r="H186" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5669,19 +5109,16 @@
         <v>121</v>
       </c>
       <c r="D187" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E187" t="n">
-        <v>3280815</v>
+        <v>308</v>
       </c>
       <c r="F187" t="n">
-        <v>308</v>
+        <v>1965</v>
       </c>
       <c r="G187" t="n">
-        <v>1965</v>
-      </c>
-      <c r="H187" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
@@ -5697,18 +5134,15 @@
         <v>100</v>
       </c>
       <c r="D188" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E188" t="n">
-        <v>3280815</v>
+        <v>194</v>
       </c>
       <c r="F188" t="n">
-        <v>194</v>
+        <v>2153</v>
       </c>
       <c r="G188" t="n">
-        <v>2153</v>
-      </c>
-      <c r="H188" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5725,18 +5159,15 @@
         <v>301</v>
       </c>
       <c r="D189" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E189" t="n">
-        <v>3280815</v>
+        <v>342</v>
       </c>
       <c r="F189" t="n">
-        <v>342</v>
+        <v>2014</v>
       </c>
       <c r="G189" t="n">
-        <v>2014</v>
-      </c>
-      <c r="H189" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5753,18 +5184,15 @@
         <v>297</v>
       </c>
       <c r="D190" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E190" t="n">
-        <v>3280815</v>
+        <v>36</v>
       </c>
       <c r="F190" t="n">
-        <v>36</v>
+        <v>615</v>
       </c>
       <c r="G190" t="n">
-        <v>615</v>
-      </c>
-      <c r="H190" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5781,18 +5209,15 @@
         <v>286</v>
       </c>
       <c r="D191" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E191" t="n">
-        <v>3280815</v>
+        <v>65</v>
       </c>
       <c r="F191" t="n">
-        <v>65</v>
+        <v>521</v>
       </c>
       <c r="G191" t="n">
-        <v>521</v>
-      </c>
-      <c r="H191" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5809,18 +5234,15 @@
         <v>290</v>
       </c>
       <c r="D192" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E192" t="n">
-        <v>3280815</v>
+        <v>399</v>
       </c>
       <c r="F192" t="n">
-        <v>399</v>
+        <v>582</v>
       </c>
       <c r="G192" t="n">
-        <v>582</v>
-      </c>
-      <c r="H192" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5837,19 +5259,16 @@
         <v>304</v>
       </c>
       <c r="D193" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E193" t="n">
-        <v>3280815</v>
+        <v>207</v>
       </c>
       <c r="F193" t="n">
-        <v>207</v>
+        <v>1177</v>
       </c>
       <c r="G193" t="n">
-        <v>1177</v>
-      </c>
-      <c r="H193" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
@@ -5865,18 +5284,15 @@
         <v>327</v>
       </c>
       <c r="D194" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E194" t="n">
-        <v>3280815</v>
+        <v>209</v>
       </c>
       <c r="F194" t="n">
-        <v>209</v>
+        <v>981</v>
       </c>
       <c r="G194" t="n">
-        <v>981</v>
-      </c>
-      <c r="H194" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5893,18 +5309,15 @@
         <v>170</v>
       </c>
       <c r="D195" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E195" t="n">
-        <v>3280815</v>
+        <v>494</v>
       </c>
       <c r="F195" t="n">
-        <v>494</v>
+        <v>9086</v>
       </c>
       <c r="G195" t="n">
-        <v>9086</v>
-      </c>
-      <c r="H195" t="n">
         <v>19</v>
       </c>
     </row>
@@ -5921,18 +5334,15 @@
         <v>294</v>
       </c>
       <c r="D196" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E196" t="n">
-        <v>3280815</v>
+        <v>535</v>
       </c>
       <c r="F196" t="n">
-        <v>535</v>
+        <v>2217</v>
       </c>
       <c r="G196" t="n">
-        <v>2217</v>
-      </c>
-      <c r="H196" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5949,18 +5359,15 @@
         <v>282</v>
       </c>
       <c r="D197" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E197" t="n">
-        <v>3280815</v>
+        <v>289</v>
       </c>
       <c r="F197" t="n">
-        <v>289</v>
+        <v>2150</v>
       </c>
       <c r="G197" t="n">
-        <v>2150</v>
-      </c>
-      <c r="H197" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5977,18 +5384,15 @@
         <v>394</v>
       </c>
       <c r="D198" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E198" t="n">
-        <v>3280815</v>
+        <v>229</v>
       </c>
       <c r="F198" t="n">
-        <v>229</v>
+        <v>2349</v>
       </c>
       <c r="G198" t="n">
-        <v>2349</v>
-      </c>
-      <c r="H198" t="n">
         <v>11</v>
       </c>
     </row>
@@ -6005,18 +5409,15 @@
         <v>292</v>
       </c>
       <c r="D199" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E199" t="n">
-        <v>3280815</v>
+        <v>146</v>
       </c>
       <c r="F199" t="n">
-        <v>146</v>
+        <v>2233</v>
       </c>
       <c r="G199" t="n">
-        <v>2233</v>
-      </c>
-      <c r="H199" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6033,19 +5434,16 @@
         <v>320</v>
       </c>
       <c r="D200" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E200" t="n">
-        <v>3280815</v>
+        <v>338</v>
       </c>
       <c r="F200" t="n">
-        <v>338</v>
+        <v>3607</v>
       </c>
       <c r="G200" t="n">
-        <v>3607</v>
-      </c>
-      <c r="H200" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -6061,19 +5459,16 @@
         <v>211</v>
       </c>
       <c r="D201" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E201" t="n">
-        <v>3280815</v>
+        <v>307</v>
       </c>
       <c r="F201" t="n">
-        <v>307</v>
+        <v>2511</v>
       </c>
       <c r="G201" t="n">
-        <v>2511</v>
-      </c>
-      <c r="H201" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
@@ -6089,18 +5484,15 @@
         <v>93</v>
       </c>
       <c r="D202" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E202" t="n">
-        <v>3280815</v>
+        <v>744</v>
       </c>
       <c r="F202" t="n">
-        <v>744</v>
+        <v>4291</v>
       </c>
       <c r="G202" t="n">
-        <v>4291</v>
-      </c>
-      <c r="H202" t="n">
         <v>18</v>
       </c>
     </row>
@@ -6117,18 +5509,15 @@
         <v>216</v>
       </c>
       <c r="D203" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E203" t="n">
-        <v>3280815</v>
+        <v>250</v>
       </c>
       <c r="F203" t="n">
-        <v>250</v>
+        <v>2115</v>
       </c>
       <c r="G203" t="n">
-        <v>2115</v>
-      </c>
-      <c r="H203" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6145,18 +5534,15 @@
         <v>344</v>
       </c>
       <c r="D204" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E204" t="n">
-        <v>3280815</v>
+        <v>275</v>
       </c>
       <c r="F204" t="n">
-        <v>275</v>
+        <v>2258</v>
       </c>
       <c r="G204" t="n">
-        <v>2258</v>
-      </c>
-      <c r="H204" t="n">
         <v>12</v>
       </c>
     </row>
@@ -6173,18 +5559,15 @@
         <v>235</v>
       </c>
       <c r="D205" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E205" t="n">
-        <v>3280815</v>
+        <v>508</v>
       </c>
       <c r="F205" t="n">
-        <v>508</v>
+        <v>2060</v>
       </c>
       <c r="G205" t="n">
-        <v>2060</v>
-      </c>
-      <c r="H205" t="n">
         <v>12</v>
       </c>
     </row>
@@ -6201,18 +5584,15 @@
         <v>248</v>
       </c>
       <c r="D206" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E206" t="n">
-        <v>3280815</v>
+        <v>365</v>
       </c>
       <c r="F206" t="n">
-        <v>365</v>
+        <v>1971</v>
       </c>
       <c r="G206" t="n">
-        <v>1971</v>
-      </c>
-      <c r="H206" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6229,19 +5609,16 @@
         <v>233</v>
       </c>
       <c r="D207" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E207" t="n">
-        <v>3280815</v>
+        <v>428</v>
       </c>
       <c r="F207" t="n">
-        <v>428</v>
+        <v>2539</v>
       </c>
       <c r="G207" t="n">
-        <v>2539</v>
-      </c>
-      <c r="H207" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208">
@@ -6257,19 +5634,16 @@
         <v>123</v>
       </c>
       <c r="D208" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E208" t="n">
-        <v>3280815</v>
+        <v>365</v>
       </c>
       <c r="F208" t="n">
-        <v>365</v>
+        <v>2188</v>
       </c>
       <c r="G208" t="n">
-        <v>2188</v>
-      </c>
-      <c r="H208" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -6285,18 +5659,15 @@
         <v>81</v>
       </c>
       <c r="D209" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E209" t="n">
-        <v>3280815</v>
+        <v>498</v>
       </c>
       <c r="F209" t="n">
-        <v>498</v>
+        <v>3827</v>
       </c>
       <c r="G209" t="n">
-        <v>3827</v>
-      </c>
-      <c r="H209" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6313,18 +5684,15 @@
         <v>225</v>
       </c>
       <c r="D210" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E210" t="n">
-        <v>3280815</v>
+        <v>317</v>
       </c>
       <c r="F210" t="n">
-        <v>317</v>
+        <v>2349</v>
       </c>
       <c r="G210" t="n">
-        <v>2349</v>
-      </c>
-      <c r="H210" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6341,18 +5709,15 @@
         <v>243</v>
       </c>
       <c r="D211" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E211" t="n">
-        <v>3280815</v>
+        <v>294</v>
       </c>
       <c r="F211" t="n">
-        <v>294</v>
+        <v>2081</v>
       </c>
       <c r="G211" t="n">
-        <v>2081</v>
-      </c>
-      <c r="H211" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6369,18 +5734,15 @@
         <v>280</v>
       </c>
       <c r="D212" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E212" t="n">
-        <v>3280815</v>
+        <v>331</v>
       </c>
       <c r="F212" t="n">
-        <v>331</v>
+        <v>2181</v>
       </c>
       <c r="G212" t="n">
-        <v>2181</v>
-      </c>
-      <c r="H212" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6397,18 +5759,15 @@
         <v>226</v>
       </c>
       <c r="D213" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E213" t="n">
-        <v>3280815</v>
+        <v>161</v>
       </c>
       <c r="F213" t="n">
-        <v>161</v>
+        <v>1800</v>
       </c>
       <c r="G213" t="n">
-        <v>1800</v>
-      </c>
-      <c r="H213" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6422,22 +5781,19 @@
         <v>27975</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D214" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E214" t="n">
-        <v>3280815</v>
+        <v>320</v>
       </c>
       <c r="F214" t="n">
-        <v>320</v>
+        <v>2447</v>
       </c>
       <c r="G214" t="n">
-        <v>2447</v>
-      </c>
-      <c r="H214" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
@@ -6453,19 +5809,16 @@
         <v>379</v>
       </c>
       <c r="D215" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E215" t="n">
-        <v>3280815</v>
+        <v>284</v>
       </c>
       <c r="F215" t="n">
-        <v>284</v>
+        <v>2171</v>
       </c>
       <c r="G215" t="n">
-        <v>2171</v>
-      </c>
-      <c r="H215" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216">
@@ -6481,18 +5834,15 @@
         <v>95</v>
       </c>
       <c r="D216" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E216" t="n">
-        <v>3280815</v>
+        <v>924</v>
       </c>
       <c r="F216" t="n">
-        <v>924</v>
+        <v>3764</v>
       </c>
       <c r="G216" t="n">
-        <v>3764</v>
-      </c>
-      <c r="H216" t="n">
         <v>17</v>
       </c>
     </row>
@@ -6509,18 +5859,15 @@
         <v>261</v>
       </c>
       <c r="D217" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E217" t="n">
-        <v>3280815</v>
+        <v>242</v>
       </c>
       <c r="F217" t="n">
-        <v>242</v>
+        <v>2185</v>
       </c>
       <c r="G217" t="n">
-        <v>2185</v>
-      </c>
-      <c r="H217" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6537,18 +5884,15 @@
         <v>365</v>
       </c>
       <c r="D218" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E218" t="n">
-        <v>3280815</v>
+        <v>340</v>
       </c>
       <c r="F218" t="n">
-        <v>340</v>
+        <v>2104</v>
       </c>
       <c r="G218" t="n">
-        <v>2104</v>
-      </c>
-      <c r="H218" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6565,18 +5909,15 @@
         <v>453</v>
       </c>
       <c r="D219" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E219" t="n">
-        <v>3280815</v>
+        <v>325</v>
       </c>
       <c r="F219" t="n">
-        <v>325</v>
+        <v>2281</v>
       </c>
       <c r="G219" t="n">
-        <v>2281</v>
-      </c>
-      <c r="H219" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6593,18 +5934,15 @@
         <v>389</v>
       </c>
       <c r="D220" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E220" t="n">
-        <v>3280815</v>
+        <v>302</v>
       </c>
       <c r="F220" t="n">
-        <v>302</v>
+        <v>2192</v>
       </c>
       <c r="G220" t="n">
-        <v>2192</v>
-      </c>
-      <c r="H220" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6621,19 +5959,16 @@
         <v>428</v>
       </c>
       <c r="D221" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E221" t="n">
-        <v>3280815</v>
+        <v>426</v>
       </c>
       <c r="F221" t="n">
-        <v>426</v>
+        <v>2505</v>
       </c>
       <c r="G221" t="n">
-        <v>2505</v>
-      </c>
-      <c r="H221" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
@@ -6649,19 +5984,16 @@
         <v>302</v>
       </c>
       <c r="D222" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E222" t="n">
-        <v>3280815</v>
+        <v>327</v>
       </c>
       <c r="F222" t="n">
-        <v>327</v>
+        <v>2253</v>
       </c>
       <c r="G222" t="n">
-        <v>2253</v>
-      </c>
-      <c r="H222" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
@@ -6677,18 +6009,15 @@
         <v>190</v>
       </c>
       <c r="D223" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E223" t="n">
-        <v>3280815</v>
+        <v>346</v>
       </c>
       <c r="F223" t="n">
-        <v>346</v>
+        <v>4900</v>
       </c>
       <c r="G223" t="n">
-        <v>4900</v>
-      </c>
-      <c r="H223" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6705,18 +6034,15 @@
         <v>336</v>
       </c>
       <c r="D224" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E224" t="n">
-        <v>3280815</v>
+        <v>190</v>
       </c>
       <c r="F224" t="n">
-        <v>190</v>
+        <v>2140</v>
       </c>
       <c r="G224" t="n">
-        <v>2140</v>
-      </c>
-      <c r="H224" t="n">
         <v>11</v>
       </c>
     </row>
@@ -6733,18 +6059,15 @@
         <v>482</v>
       </c>
       <c r="D225" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E225" t="n">
-        <v>3280815</v>
+        <v>297</v>
       </c>
       <c r="F225" t="n">
-        <v>297</v>
+        <v>2511</v>
       </c>
       <c r="G225" t="n">
-        <v>2511</v>
-      </c>
-      <c r="H225" t="n">
         <v>11</v>
       </c>
     </row>
@@ -6761,18 +6084,15 @@
         <v>569</v>
       </c>
       <c r="D226" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E226" t="n">
-        <v>3280815</v>
+        <v>282</v>
       </c>
       <c r="F226" t="n">
-        <v>282</v>
+        <v>2326</v>
       </c>
       <c r="G226" t="n">
-        <v>2326</v>
-      </c>
-      <c r="H226" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6789,18 +6109,15 @@
         <v>621</v>
       </c>
       <c r="D227" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E227" t="n">
-        <v>3280815</v>
+        <v>247</v>
       </c>
       <c r="F227" t="n">
-        <v>247</v>
+        <v>2525</v>
       </c>
       <c r="G227" t="n">
-        <v>2525</v>
-      </c>
-      <c r="H227" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6817,19 +6134,16 @@
         <v>716</v>
       </c>
       <c r="D228" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E228" t="n">
-        <v>3280815</v>
+        <v>272</v>
       </c>
       <c r="F228" t="n">
-        <v>272</v>
+        <v>2880</v>
       </c>
       <c r="G228" t="n">
-        <v>2880</v>
-      </c>
-      <c r="H228" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">
@@ -6845,19 +6159,16 @@
         <v>551</v>
       </c>
       <c r="D229" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E229" t="n">
-        <v>3280815</v>
+        <v>257</v>
       </c>
       <c r="F229" t="n">
-        <v>257</v>
+        <v>2476</v>
       </c>
       <c r="G229" t="n">
-        <v>2476</v>
-      </c>
-      <c r="H229" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230">
@@ -6873,18 +6184,15 @@
         <v>549</v>
       </c>
       <c r="D230" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E230" t="n">
-        <v>3280815</v>
+        <v>839</v>
       </c>
       <c r="F230" t="n">
-        <v>839</v>
+        <v>5529</v>
       </c>
       <c r="G230" t="n">
-        <v>5529</v>
-      </c>
-      <c r="H230" t="n">
         <v>17</v>
       </c>
     </row>
@@ -6901,18 +6209,15 @@
         <v>728</v>
       </c>
       <c r="D231" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E231" t="n">
-        <v>3280815</v>
+        <v>118</v>
       </c>
       <c r="F231" t="n">
-        <v>118</v>
+        <v>5667</v>
       </c>
       <c r="G231" t="n">
-        <v>5667</v>
-      </c>
-      <c r="H231" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6929,18 +6234,15 @@
         <v>926</v>
       </c>
       <c r="D232" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E232" t="n">
-        <v>3280815</v>
+        <v>219</v>
       </c>
       <c r="F232" t="n">
-        <v>219</v>
+        <v>-56</v>
       </c>
       <c r="G232" t="n">
-        <v>-56</v>
-      </c>
-      <c r="H232" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6957,18 +6259,15 @@
         <v>999</v>
       </c>
       <c r="D233" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E233" t="n">
-        <v>3280815</v>
+        <v>210</v>
       </c>
       <c r="F233" t="n">
-        <v>210</v>
+        <v>3056</v>
       </c>
       <c r="G233" t="n">
-        <v>3056</v>
-      </c>
-      <c r="H233" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6985,18 +6284,15 @@
         <v>1179</v>
       </c>
       <c r="D234" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E234" t="n">
-        <v>3280815</v>
+        <v>271</v>
       </c>
       <c r="F234" t="n">
-        <v>271</v>
+        <v>2966</v>
       </c>
       <c r="G234" t="n">
-        <v>2966</v>
-      </c>
-      <c r="H234" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7013,18 +6309,15 @@
         <v>1265</v>
       </c>
       <c r="D235" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E235" t="n">
-        <v>3280815</v>
+        <v>108</v>
       </c>
       <c r="F235" t="n">
-        <v>108</v>
+        <v>2686</v>
       </c>
       <c r="G235" t="n">
-        <v>2686</v>
-      </c>
-      <c r="H235" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7041,18 +6334,15 @@
         <v>1135</v>
       </c>
       <c r="D236" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E236" t="n">
-        <v>3280815</v>
+        <v>91</v>
       </c>
       <c r="F236" t="n">
-        <v>91</v>
+        <v>2504</v>
       </c>
       <c r="G236" t="n">
-        <v>2504</v>
-      </c>
-      <c r="H236" t="n">
         <v>15</v>
       </c>
     </row>
@@ -7069,18 +6359,15 @@
         <v>703</v>
       </c>
       <c r="D237" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E237" t="n">
-        <v>3280815</v>
+        <v>83</v>
       </c>
       <c r="F237" t="n">
-        <v>83</v>
+        <v>1848</v>
       </c>
       <c r="G237" t="n">
-        <v>1848</v>
-      </c>
-      <c r="H237" t="n">
         <v>18</v>
       </c>
     </row>
@@ -7097,18 +6384,15 @@
         <v>1555</v>
       </c>
       <c r="D238" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E238" t="n">
-        <v>3280815</v>
+        <v>361</v>
       </c>
       <c r="F238" t="n">
-        <v>361</v>
+        <v>3080</v>
       </c>
       <c r="G238" t="n">
-        <v>3080</v>
-      </c>
-      <c r="H238" t="n">
         <v>21</v>
       </c>
     </row>
@@ -7125,18 +6409,15 @@
         <v>1586</v>
       </c>
       <c r="D239" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E239" t="n">
-        <v>3280815</v>
+        <v>184</v>
       </c>
       <c r="F239" t="n">
-        <v>184</v>
+        <v>3717</v>
       </c>
       <c r="G239" t="n">
-        <v>3717</v>
-      </c>
-      <c r="H239" t="n">
         <v>36</v>
       </c>
     </row>
@@ -7153,18 +6434,15 @@
         <v>1902</v>
       </c>
       <c r="D240" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E240" t="n">
-        <v>3280815</v>
+        <v>493</v>
       </c>
       <c r="F240" t="n">
-        <v>493</v>
+        <v>4328</v>
       </c>
       <c r="G240" t="n">
-        <v>4328</v>
-      </c>
-      <c r="H240" t="n">
         <v>21</v>
       </c>
     </row>
@@ -7181,18 +6459,15 @@
         <v>1498</v>
       </c>
       <c r="D241" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E241" t="n">
-        <v>3280815</v>
+        <v>290</v>
       </c>
       <c r="F241" t="n">
-        <v>290</v>
+        <v>3845</v>
       </c>
       <c r="G241" t="n">
-        <v>3845</v>
-      </c>
-      <c r="H241" t="n">
         <v>30</v>
       </c>
     </row>
@@ -7209,18 +6484,15 @@
         <v>1953</v>
       </c>
       <c r="D242" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E242" t="n">
-        <v>3280815</v>
+        <v>213</v>
       </c>
       <c r="F242" t="n">
-        <v>213</v>
+        <v>3956</v>
       </c>
       <c r="G242" t="n">
-        <v>3956</v>
-      </c>
-      <c r="H242" t="n">
         <v>22</v>
       </c>
     </row>
@@ -7237,18 +6509,15 @@
         <v>1415</v>
       </c>
       <c r="D243" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E243" t="n">
-        <v>3280815</v>
+        <v>111</v>
       </c>
       <c r="F243" t="n">
-        <v>111</v>
+        <v>2948</v>
       </c>
       <c r="G243" t="n">
-        <v>2948</v>
-      </c>
-      <c r="H243" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7265,18 +6534,15 @@
         <v>764</v>
       </c>
       <c r="D244" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E244" t="n">
-        <v>3280815</v>
+        <v>373</v>
       </c>
       <c r="F244" t="n">
-        <v>373</v>
+        <v>1618</v>
       </c>
       <c r="G244" t="n">
-        <v>1618</v>
-      </c>
-      <c r="H244" t="n">
         <v>32</v>
       </c>
     </row>
@@ -7293,18 +6559,15 @@
         <v>1553</v>
       </c>
       <c r="D245" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E245" t="n">
-        <v>3280815</v>
+        <v>589</v>
       </c>
       <c r="F245" t="n">
-        <v>589</v>
+        <v>2816</v>
       </c>
       <c r="G245" t="n">
-        <v>2816</v>
-      </c>
-      <c r="H245" t="n">
         <v>37</v>
       </c>
     </row>
@@ -7321,18 +6584,15 @@
         <v>1776</v>
       </c>
       <c r="D246" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E246" t="n">
-        <v>3280815</v>
+        <v>233</v>
       </c>
       <c r="F246" t="n">
-        <v>233</v>
+        <v>4456</v>
       </c>
       <c r="G246" t="n">
-        <v>4456</v>
-      </c>
-      <c r="H246" t="n">
         <v>41</v>
       </c>
     </row>
@@ -7349,18 +6609,15 @@
         <v>1908</v>
       </c>
       <c r="D247" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E247" t="n">
-        <v>3280815</v>
+        <v>300</v>
       </c>
       <c r="F247" t="n">
-        <v>300</v>
+        <v>5171</v>
       </c>
       <c r="G247" t="n">
-        <v>5171</v>
-      </c>
-      <c r="H247" t="n">
         <v>44</v>
       </c>
     </row>
@@ -7377,18 +6634,15 @@
         <v>1921</v>
       </c>
       <c r="D248" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E248" t="n">
-        <v>3280815</v>
+        <v>281</v>
       </c>
       <c r="F248" t="n">
-        <v>281</v>
+        <v>4694</v>
       </c>
       <c r="G248" t="n">
-        <v>4694</v>
-      </c>
-      <c r="H248" t="n">
         <v>55</v>
       </c>
     </row>
@@ -7405,18 +6659,15 @@
         <v>1785</v>
       </c>
       <c r="D249" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E249" t="n">
-        <v>3280815</v>
+        <v>684</v>
       </c>
       <c r="F249" t="n">
-        <v>684</v>
+        <v>4442</v>
       </c>
       <c r="G249" t="n">
-        <v>4442</v>
-      </c>
-      <c r="H249" t="n">
         <v>33</v>
       </c>
     </row>
@@ -7433,18 +6684,15 @@
         <v>1211</v>
       </c>
       <c r="D250" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E250" t="n">
-        <v>3280815</v>
+        <v>285</v>
       </c>
       <c r="F250" t="n">
-        <v>285</v>
+        <v>2797</v>
       </c>
       <c r="G250" t="n">
-        <v>2797</v>
-      </c>
-      <c r="H250" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7461,18 +6709,15 @@
         <v>996</v>
       </c>
       <c r="D251" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E251" t="n">
-        <v>3280815</v>
+        <v>283</v>
       </c>
       <c r="F251" t="n">
-        <v>283</v>
+        <v>2366</v>
       </c>
       <c r="G251" t="n">
-        <v>2366</v>
-      </c>
-      <c r="H251" t="n">
         <v>73</v>
       </c>
     </row>
@@ -7489,18 +6734,15 @@
         <v>1605</v>
       </c>
       <c r="D252" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E252" t="n">
-        <v>3280815</v>
+        <v>1039</v>
       </c>
       <c r="F252" t="n">
-        <v>1039</v>
+        <v>5375</v>
       </c>
       <c r="G252" t="n">
-        <v>5375</v>
-      </c>
-      <c r="H252" t="n">
         <v>46</v>
       </c>
     </row>
@@ -7517,18 +6759,15 @@
         <v>1541</v>
       </c>
       <c r="D253" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E253" t="n">
-        <v>3280815</v>
+        <v>508</v>
       </c>
       <c r="F253" t="n">
-        <v>508</v>
+        <v>5579</v>
       </c>
       <c r="G253" t="n">
-        <v>5579</v>
-      </c>
-      <c r="H253" t="n">
         <v>72</v>
       </c>
     </row>
@@ -7545,18 +6784,15 @@
         <v>1728</v>
       </c>
       <c r="D254" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E254" t="n">
-        <v>3280815</v>
+        <v>921</v>
       </c>
       <c r="F254" t="n">
-        <v>921</v>
+        <v>5014</v>
       </c>
       <c r="G254" t="n">
-        <v>5014</v>
-      </c>
-      <c r="H254" t="n">
         <v>49</v>
       </c>
     </row>
@@ -7573,18 +6809,15 @@
         <v>1332</v>
       </c>
       <c r="D255" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E255" t="n">
-        <v>3280815</v>
+        <v>801</v>
       </c>
       <c r="F255" t="n">
-        <v>801</v>
+        <v>3854</v>
       </c>
       <c r="G255" t="n">
-        <v>3854</v>
-      </c>
-      <c r="H255" t="n">
         <v>58</v>
       </c>
     </row>
@@ -7601,18 +6834,15 @@
         <v>1275</v>
       </c>
       <c r="D256" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E256" t="n">
-        <v>3280815</v>
+        <v>870</v>
       </c>
       <c r="F256" t="n">
-        <v>870</v>
+        <v>3773</v>
       </c>
       <c r="G256" t="n">
-        <v>3773</v>
-      </c>
-      <c r="H256" t="n">
         <v>49</v>
       </c>
     </row>
@@ -7629,18 +6859,15 @@
         <v>1056</v>
       </c>
       <c r="D257" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E257" t="n">
-        <v>3280815</v>
+        <v>245</v>
       </c>
       <c r="F257" t="n">
-        <v>245</v>
+        <v>2334</v>
       </c>
       <c r="G257" t="n">
-        <v>2334</v>
-      </c>
-      <c r="H257" t="n">
         <v>41</v>
       </c>
     </row>
@@ -7657,18 +6884,15 @@
         <v>733</v>
       </c>
       <c r="D258" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E258" t="n">
-        <v>3280815</v>
+        <v>867</v>
       </c>
       <c r="F258" t="n">
-        <v>867</v>
+        <v>2390</v>
       </c>
       <c r="G258" t="n">
-        <v>2390</v>
-      </c>
-      <c r="H258" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7685,18 +6909,15 @@
         <v>1255</v>
       </c>
       <c r="D259" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E259" t="n">
-        <v>3280815</v>
+        <v>2187</v>
       </c>
       <c r="F259" t="n">
-        <v>2187</v>
+        <v>3725</v>
       </c>
       <c r="G259" t="n">
-        <v>3725</v>
-      </c>
-      <c r="H259" t="n">
         <v>69</v>
       </c>
     </row>
@@ -7713,18 +6934,15 @@
         <v>1633</v>
       </c>
       <c r="D260" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E260" t="n">
-        <v>3280815</v>
+        <v>1226</v>
       </c>
       <c r="F260" t="n">
-        <v>1226</v>
+        <v>4549</v>
       </c>
       <c r="G260" t="n">
-        <v>4549</v>
-      </c>
-      <c r="H260" t="n">
         <v>47</v>
       </c>
     </row>
@@ -7741,18 +6959,15 @@
         <v>1180</v>
       </c>
       <c r="D261" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E261" t="n">
-        <v>3280815</v>
+        <v>1145</v>
       </c>
       <c r="F261" t="n">
-        <v>1145</v>
+        <v>3614</v>
       </c>
       <c r="G261" t="n">
-        <v>3614</v>
-      </c>
-      <c r="H261" t="n">
         <v>64</v>
       </c>
     </row>
@@ -7769,18 +6984,15 @@
         <v>1237</v>
       </c>
       <c r="D262" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E262" t="n">
-        <v>3280815</v>
+        <v>1885</v>
       </c>
       <c r="F262" t="n">
-        <v>1885</v>
+        <v>4139</v>
       </c>
       <c r="G262" t="n">
-        <v>4139</v>
-      </c>
-      <c r="H262" t="n">
         <v>56</v>
       </c>
     </row>
@@ -7797,18 +7009,15 @@
         <v>1315</v>
       </c>
       <c r="D263" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E263" t="n">
-        <v>3280815</v>
+        <v>877</v>
       </c>
       <c r="F263" t="n">
-        <v>877</v>
+        <v>3823</v>
       </c>
       <c r="G263" t="n">
-        <v>3823</v>
-      </c>
-      <c r="H263" t="n">
         <v>40</v>
       </c>
     </row>
@@ -7825,18 +7034,15 @@
         <v>697</v>
       </c>
       <c r="D264" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E264" t="n">
-        <v>3280815</v>
+        <v>623</v>
       </c>
       <c r="F264" t="n">
-        <v>623</v>
+        <v>1969</v>
       </c>
       <c r="G264" t="n">
-        <v>1969</v>
-      </c>
-      <c r="H264" t="n">
         <v>27</v>
       </c>
     </row>
@@ -7853,18 +7059,15 @@
         <v>547</v>
       </c>
       <c r="D265" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E265" t="n">
-        <v>3280815</v>
+        <v>1344</v>
       </c>
       <c r="F265" t="n">
-        <v>1344</v>
+        <v>1449</v>
       </c>
       <c r="G265" t="n">
-        <v>1449</v>
-      </c>
-      <c r="H265" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7881,18 +7084,15 @@
         <v>1186</v>
       </c>
       <c r="D266" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E266" t="n">
-        <v>3280815</v>
+        <v>1765</v>
       </c>
       <c r="F266" t="n">
-        <v>1765</v>
+        <v>3578</v>
       </c>
       <c r="G266" t="n">
-        <v>3578</v>
-      </c>
-      <c r="H266" t="n">
         <v>52</v>
       </c>
     </row>
@@ -7909,18 +7109,15 @@
         <v>1589</v>
       </c>
       <c r="D267" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E267" t="n">
-        <v>3280815</v>
+        <v>685</v>
       </c>
       <c r="F267" t="n">
-        <v>685</v>
+        <v>3929</v>
       </c>
       <c r="G267" t="n">
-        <v>3929</v>
-      </c>
-      <c r="H267" t="n">
         <v>35</v>
       </c>
     </row>
@@ -7937,18 +7134,15 @@
         <v>924</v>
       </c>
       <c r="D268" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E268" t="n">
-        <v>3280815</v>
+        <v>570</v>
       </c>
       <c r="F268" t="n">
-        <v>570</v>
+        <v>2757</v>
       </c>
       <c r="G268" t="n">
-        <v>2757</v>
-      </c>
-      <c r="H268" t="n">
         <v>51</v>
       </c>
     </row>
@@ -7965,18 +7159,15 @@
         <v>1179</v>
       </c>
       <c r="D269" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E269" t="n">
-        <v>3280815</v>
+        <v>1221</v>
       </c>
       <c r="F269" t="n">
-        <v>1221</v>
+        <v>3180</v>
       </c>
       <c r="G269" t="n">
-        <v>3180</v>
-      </c>
-      <c r="H269" t="n">
         <v>62</v>
       </c>
     </row>
@@ -7993,18 +7184,15 @@
         <v>1279</v>
       </c>
       <c r="D270" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E270" t="n">
-        <v>3280815</v>
+        <v>1067</v>
       </c>
       <c r="F270" t="n">
-        <v>1067</v>
+        <v>3252</v>
       </c>
       <c r="G270" t="n">
-        <v>3252</v>
-      </c>
-      <c r="H270" t="n">
         <v>34</v>
       </c>
     </row>
@@ -8021,18 +7209,15 @@
         <v>664</v>
       </c>
       <c r="D271" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E271" t="n">
-        <v>3280815</v>
+        <v>411</v>
       </c>
       <c r="F271" t="n">
-        <v>411</v>
+        <v>1698</v>
       </c>
       <c r="G271" t="n">
-        <v>1698</v>
-      </c>
-      <c r="H271" t="n">
         <v>44</v>
       </c>
     </row>
@@ -8049,18 +7234,15 @@
         <v>527</v>
       </c>
       <c r="D272" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E272" t="n">
-        <v>3280815</v>
+        <v>1290</v>
       </c>
       <c r="F272" t="n">
-        <v>1290</v>
+        <v>1553</v>
       </c>
       <c r="G272" t="n">
-        <v>1553</v>
-      </c>
-      <c r="H272" t="n">
         <v>61</v>
       </c>
     </row>
@@ -8077,18 +7259,15 @@
         <v>1184</v>
       </c>
       <c r="D273" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E273" t="n">
-        <v>3280815</v>
+        <v>955</v>
       </c>
       <c r="F273" t="n">
-        <v>955</v>
+        <v>3428</v>
       </c>
       <c r="G273" t="n">
-        <v>3428</v>
-      </c>
-      <c r="H273" t="n">
         <v>46</v>
       </c>
     </row>
@@ -8105,18 +7284,15 @@
         <v>1293</v>
       </c>
       <c r="D274" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E274" t="n">
-        <v>3280815</v>
+        <v>1243</v>
       </c>
       <c r="F274" t="n">
-        <v>1243</v>
+        <v>3477</v>
       </c>
       <c r="G274" t="n">
-        <v>3477</v>
-      </c>
-      <c r="H274" t="n">
         <v>46</v>
       </c>
     </row>
@@ -8133,18 +7309,15 @@
         <v>1161</v>
       </c>
       <c r="D275" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E275" t="n">
-        <v>3280815</v>
+        <v>1083</v>
       </c>
       <c r="F275" t="n">
-        <v>1083</v>
+        <v>3810</v>
       </c>
       <c r="G275" t="n">
-        <v>3810</v>
-      </c>
-      <c r="H275" t="n">
         <v>39</v>
       </c>
     </row>
@@ -8161,18 +7334,15 @@
         <v>1254</v>
       </c>
       <c r="D276" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E276" t="n">
-        <v>3280815</v>
+        <v>1495</v>
       </c>
       <c r="F276" t="n">
-        <v>1495</v>
+        <v>4158</v>
       </c>
       <c r="G276" t="n">
-        <v>4158</v>
-      </c>
-      <c r="H276" t="n">
         <v>53</v>
       </c>
     </row>
@@ -8189,18 +7359,15 @@
         <v>975</v>
       </c>
       <c r="D277" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E277" t="n">
-        <v>3280815</v>
+        <v>489</v>
       </c>
       <c r="F277" t="n">
-        <v>489</v>
+        <v>2815</v>
       </c>
       <c r="G277" t="n">
-        <v>2815</v>
-      </c>
-      <c r="H277" t="n">
         <v>57</v>
       </c>
     </row>
@@ -8217,18 +7384,15 @@
         <v>739</v>
       </c>
       <c r="D278" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E278" t="n">
-        <v>3280815</v>
+        <v>591</v>
       </c>
       <c r="F278" t="n">
-        <v>591</v>
+        <v>2262</v>
       </c>
       <c r="G278" t="n">
-        <v>2262</v>
-      </c>
-      <c r="H278" t="n">
         <v>30</v>
       </c>
     </row>
@@ -8245,18 +7409,15 @@
         <v>437</v>
       </c>
       <c r="D279" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E279" t="n">
-        <v>3280815</v>
+        <v>863</v>
       </c>
       <c r="F279" t="n">
-        <v>863</v>
+        <v>1754</v>
       </c>
       <c r="G279" t="n">
-        <v>1754</v>
-      </c>
-      <c r="H279" t="n">
         <v>60</v>
       </c>
     </row>
@@ -8273,18 +7434,15 @@
         <v>1077</v>
       </c>
       <c r="D280" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E280" t="n">
-        <v>3280815</v>
+        <v>722</v>
       </c>
       <c r="F280" t="n">
-        <v>722</v>
+        <v>3596</v>
       </c>
       <c r="G280" t="n">
-        <v>3596</v>
-      </c>
-      <c r="H280" t="n">
         <v>69</v>
       </c>
     </row>
@@ -8301,18 +7459,15 @@
         <v>1296</v>
       </c>
       <c r="D281" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E281" t="n">
-        <v>3280815</v>
+        <v>1112</v>
       </c>
       <c r="F281" t="n">
-        <v>1112</v>
+        <v>9431</v>
       </c>
       <c r="G281" t="n">
-        <v>9431</v>
-      </c>
-      <c r="H281" t="n">
         <v>70</v>
       </c>
     </row>
@@ -8329,18 +7484,15 @@
         <v>1286</v>
       </c>
       <c r="D282" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E282" t="n">
-        <v>3280815</v>
+        <v>1270</v>
       </c>
       <c r="F282" t="n">
-        <v>1270</v>
+        <v>3979</v>
       </c>
       <c r="G282" t="n">
-        <v>3979</v>
-      </c>
-      <c r="H282" t="n">
         <v>48</v>
       </c>
     </row>
@@ -8357,18 +7509,15 @@
         <v>940</v>
       </c>
       <c r="D283" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E283" t="n">
-        <v>3280815</v>
+        <v>1141</v>
       </c>
       <c r="F283" t="n">
-        <v>1141</v>
+        <v>3360</v>
       </c>
       <c r="G283" t="n">
-        <v>3360</v>
-      </c>
-      <c r="H283" t="n">
         <v>51</v>
       </c>
     </row>
@@ -8385,18 +7534,15 @@
         <v>763</v>
       </c>
       <c r="D284" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E284" t="n">
-        <v>3280815</v>
+        <v>1556</v>
       </c>
       <c r="F284" t="n">
-        <v>1556</v>
+        <v>2941</v>
       </c>
       <c r="G284" t="n">
-        <v>2941</v>
-      </c>
-      <c r="H284" t="n">
         <v>48</v>
       </c>
     </row>
@@ -8413,18 +7559,15 @@
         <v>811</v>
       </c>
       <c r="D285" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E285" t="n">
-        <v>3280815</v>
+        <v>469</v>
       </c>
       <c r="F285" t="n">
-        <v>469</v>
+        <v>2022</v>
       </c>
       <c r="G285" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H285" t="n">
         <v>38</v>
       </c>
     </row>
@@ -8441,18 +7584,15 @@
         <v>344</v>
       </c>
       <c r="D286" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E286" t="n">
-        <v>3280815</v>
+        <v>728</v>
       </c>
       <c r="F286" t="n">
-        <v>728</v>
+        <v>1286</v>
       </c>
       <c r="G286" t="n">
-        <v>1286</v>
-      </c>
-      <c r="H286" t="n">
         <v>55</v>
       </c>
     </row>
@@ -8469,18 +7609,15 @@
         <v>869</v>
       </c>
       <c r="D287" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E287" t="n">
-        <v>3280815</v>
+        <v>1163</v>
       </c>
       <c r="F287" t="n">
-        <v>1163</v>
+        <v>3319</v>
       </c>
       <c r="G287" t="n">
-        <v>3319</v>
-      </c>
-      <c r="H287" t="n">
         <v>66</v>
       </c>
     </row>
@@ -8497,18 +7634,15 @@
         <v>902</v>
       </c>
       <c r="D288" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E288" t="n">
-        <v>3280815</v>
+        <v>596</v>
       </c>
       <c r="F288" t="n">
-        <v>596</v>
+        <v>3555</v>
       </c>
       <c r="G288" t="n">
-        <v>3555</v>
-      </c>
-      <c r="H288" t="n">
         <v>54</v>
       </c>
     </row>
@@ -8525,18 +7659,15 @@
         <v>855</v>
       </c>
       <c r="D289" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E289" t="n">
-        <v>3280815</v>
+        <v>1250</v>
       </c>
       <c r="F289" t="n">
-        <v>1250</v>
+        <v>3624</v>
       </c>
       <c r="G289" t="n">
-        <v>3624</v>
-      </c>
-      <c r="H289" t="n">
         <v>38</v>
       </c>
     </row>
@@ -8553,18 +7684,15 @@
         <v>794</v>
       </c>
       <c r="D290" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E290" t="n">
-        <v>3280815</v>
+        <v>754</v>
       </c>
       <c r="F290" t="n">
-        <v>754</v>
+        <v>3289</v>
       </c>
       <c r="G290" t="n">
-        <v>3289</v>
-      </c>
-      <c r="H290" t="n">
         <v>34</v>
       </c>
     </row>
@@ -8581,18 +7709,15 @@
         <v>643</v>
       </c>
       <c r="D291" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E291" t="n">
-        <v>3280815</v>
+        <v>371</v>
       </c>
       <c r="F291" t="n">
-        <v>371</v>
+        <v>2840</v>
       </c>
       <c r="G291" t="n">
-        <v>2840</v>
-      </c>
-      <c r="H291" t="n">
         <v>42</v>
       </c>
     </row>
@@ -8606,21 +7731,18 @@
         <v>105524</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="D292" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E292" t="n">
-        <v>3280815</v>
+        <v>274</v>
       </c>
       <c r="F292" t="n">
-        <v>274</v>
+        <v>2375</v>
       </c>
       <c r="G292" t="n">
-        <v>2375</v>
-      </c>
-      <c r="H292" t="n">
         <v>28</v>
       </c>
     </row>
@@ -8637,18 +7759,15 @@
         <v>698</v>
       </c>
       <c r="D293" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E293" t="n">
-        <v>3280815</v>
+        <v>654</v>
       </c>
       <c r="F293" t="n">
-        <v>654</v>
+        <v>1843</v>
       </c>
       <c r="G293" t="n">
-        <v>1843</v>
-      </c>
-      <c r="H293" t="n">
         <v>53</v>
       </c>
     </row>
@@ -8665,18 +7784,15 @@
         <v>764</v>
       </c>
       <c r="D294" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E294" t="n">
-        <v>3280815</v>
+        <v>1049</v>
       </c>
       <c r="F294" t="n">
-        <v>1049</v>
+        <v>3339</v>
       </c>
       <c r="G294" t="n">
-        <v>3339</v>
-      </c>
-      <c r="H294" t="n">
         <v>86</v>
       </c>
     </row>
@@ -8693,18 +7809,15 @@
         <v>584</v>
       </c>
       <c r="D295" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E295" t="n">
-        <v>3280815</v>
+        <v>552</v>
       </c>
       <c r="F295" t="n">
-        <v>552</v>
+        <v>3054</v>
       </c>
       <c r="G295" t="n">
-        <v>3054</v>
-      </c>
-      <c r="H295" t="n">
         <v>46</v>
       </c>
     </row>
@@ -8721,18 +7834,15 @@
         <v>728</v>
       </c>
       <c r="D296" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E296" t="n">
-        <v>3280815</v>
+        <v>747</v>
       </c>
       <c r="F296" t="n">
-        <v>747</v>
+        <v>3261</v>
       </c>
       <c r="G296" t="n">
-        <v>3261</v>
-      </c>
-      <c r="H296" t="n">
         <v>40</v>
       </c>
     </row>
@@ -8749,18 +7859,15 @@
         <v>593</v>
       </c>
       <c r="D297" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E297" t="n">
-        <v>3280815</v>
+        <v>771</v>
       </c>
       <c r="F297" t="n">
-        <v>771</v>
+        <v>2958</v>
       </c>
       <c r="G297" t="n">
-        <v>2958</v>
-      </c>
-      <c r="H297" t="n">
         <v>23</v>
       </c>
     </row>
@@ -8777,18 +7884,15 @@
         <v>439</v>
       </c>
       <c r="D298" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E298" t="n">
-        <v>3280815</v>
+        <v>457</v>
       </c>
       <c r="F298" t="n">
-        <v>457</v>
+        <v>2180</v>
       </c>
       <c r="G298" t="n">
-        <v>2180</v>
-      </c>
-      <c r="H298" t="n">
         <v>22</v>
       </c>
     </row>
@@ -8805,18 +7909,15 @@
         <v>361</v>
       </c>
       <c r="D299" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E299" t="n">
-        <v>3280815</v>
+        <v>593</v>
       </c>
       <c r="F299" t="n">
-        <v>593</v>
+        <v>1843</v>
       </c>
       <c r="G299" t="n">
-        <v>1843</v>
-      </c>
-      <c r="H299" t="n">
         <v>30</v>
       </c>
     </row>
@@ -8833,18 +7934,15 @@
         <v>220</v>
       </c>
       <c r="D300" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E300" t="n">
-        <v>3280815</v>
+        <v>404</v>
       </c>
       <c r="F300" t="n">
-        <v>404</v>
+        <v>1775</v>
       </c>
       <c r="G300" t="n">
-        <v>1775</v>
-      </c>
-      <c r="H300" t="n">
         <v>23</v>
       </c>
     </row>
@@ -8861,18 +7959,15 @@
         <v>543</v>
       </c>
       <c r="D301" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E301" t="n">
-        <v>3280815</v>
+        <v>681</v>
       </c>
       <c r="F301" t="n">
-        <v>681</v>
+        <v>3386</v>
       </c>
       <c r="G301" t="n">
-        <v>3386</v>
-      </c>
-      <c r="H301" t="n">
         <v>48</v>
       </c>
     </row>
@@ -8889,18 +7984,15 @@
         <v>531</v>
       </c>
       <c r="D302" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E302" t="n">
-        <v>3280815</v>
+        <v>423</v>
       </c>
       <c r="F302" t="n">
-        <v>423</v>
+        <v>2873</v>
       </c>
       <c r="G302" t="n">
-        <v>2873</v>
-      </c>
-      <c r="H302" t="n">
         <v>26</v>
       </c>
     </row>
@@ -8914,22 +8006,19 @@
         <v>110985</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="D303" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E303" t="n">
-        <v>3280815</v>
+        <v>511</v>
       </c>
       <c r="F303" t="n">
-        <v>511</v>
+        <v>2411</v>
       </c>
       <c r="G303" t="n">
-        <v>2411</v>
-      </c>
-      <c r="H303" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="304">
@@ -8945,18 +8034,15 @@
         <v>1158</v>
       </c>
       <c r="D304" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E304" t="n">
-        <v>3280815</v>
+        <v>522</v>
       </c>
       <c r="F304" t="n">
-        <v>522</v>
+        <v>2457</v>
       </c>
       <c r="G304" t="n">
-        <v>2457</v>
-      </c>
-      <c r="H304" t="n">
         <v>31</v>
       </c>
     </row>
@@ -8970,22 +8056,19 @@
         <v>112143</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="D305" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E305" t="n">
-        <v>3280815</v>
+        <v>508</v>
       </c>
       <c r="F305" t="n">
-        <v>508</v>
+        <v>2580</v>
       </c>
       <c r="G305" t="n">
-        <v>2580</v>
-      </c>
-      <c r="H305" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306">
@@ -9001,19 +8084,16 @@
         <v>502</v>
       </c>
       <c r="D306" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E306" t="n">
-        <v>3280815</v>
+        <v>529</v>
       </c>
       <c r="F306" t="n">
-        <v>529</v>
+        <v>2741</v>
       </c>
       <c r="G306" t="n">
-        <v>2741</v>
-      </c>
-      <c r="H306" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="307">
@@ -9026,22 +8106,19 @@
         <v>112645</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="D307" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E307" t="n">
-        <v>3280815</v>
+        <v>498</v>
       </c>
       <c r="F307" t="n">
-        <v>498</v>
+        <v>2612</v>
       </c>
       <c r="G307" t="n">
-        <v>2612</v>
-      </c>
-      <c r="H307" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="308">
@@ -9057,19 +8134,16 @@
         <v>747</v>
       </c>
       <c r="D308" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E308" t="n">
-        <v>3280815</v>
+        <v>513</v>
       </c>
       <c r="F308" t="n">
-        <v>513</v>
+        <v>2560</v>
       </c>
       <c r="G308" t="n">
-        <v>2560</v>
-      </c>
-      <c r="H308" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309">
@@ -9082,22 +8156,44 @@
         <v>113392</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="D309" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E309" t="n">
-        <v>3280815</v>
+        <v>514</v>
       </c>
       <c r="F309" t="n">
-        <v>514</v>
+        <v>2590</v>
       </c>
       <c r="G309" t="n">
-        <v>2590</v>
-      </c>
-      <c r="H309" t="n">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>07.01.2021</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>113392</v>
+      </c>
+      <c r="C310" t="n">
+        <v>636</v>
+      </c>
+      <c r="D310" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E310" t="n">
+        <v>512</v>
+      </c>
+      <c r="F310" t="n">
+        <v>2616</v>
+      </c>
+      <c r="G310" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8196,6 +8196,31 @@
         <v>32</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>114920</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E311" t="n">
+        <v>513</v>
+      </c>
+      <c r="F311" t="n">
+        <v>2623</v>
+      </c>
+      <c r="G311" t="n">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -6240,7 +6240,7 @@
         <v>219</v>
       </c>
       <c r="F232" t="n">
-        <v>-56</v>
+        <v>56</v>
       </c>
       <c r="G232" t="n">
         <v>14</v>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6240,7 +6240,7 @@
         <v>219</v>
       </c>
       <c r="F232" t="n">
-        <v>56</v>
+        <v>3815</v>
       </c>
       <c r="G232" t="n">
         <v>14</v>
@@ -8218,6 +8218,56 @@
         <v>2623</v>
       </c>
       <c r="G311" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>09.01.2021</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>115379</v>
+      </c>
+      <c r="C312" t="n">
+        <v>459</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E312" t="n">
+        <v>510</v>
+      </c>
+      <c r="F312" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G312" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>10.01.2021</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>115633</v>
+      </c>
+      <c r="C313" t="n">
+        <v>254</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E313" t="n">
+        <v>512</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2597</v>
+      </c>
+      <c r="G313" t="n">
         <v>32</v>
       </c>
     </row>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8137,13 +8137,13 @@
         <v>3280815</v>
       </c>
       <c r="E308" t="n">
-        <v>513</v>
+        <v>1574</v>
       </c>
       <c r="F308" t="n">
-        <v>2560</v>
+        <v>5053</v>
       </c>
       <c r="G308" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="309">
@@ -8162,13 +8162,13 @@
         <v>3280815</v>
       </c>
       <c r="E309" t="n">
-        <v>514</v>
+        <v>726</v>
       </c>
       <c r="F309" t="n">
-        <v>2590</v>
+        <v>3088</v>
       </c>
       <c r="G309" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="310">
@@ -8187,13 +8187,13 @@
         <v>3280815</v>
       </c>
       <c r="E310" t="n">
-        <v>512</v>
+        <v>767</v>
       </c>
       <c r="F310" t="n">
-        <v>2616</v>
+        <v>3214</v>
       </c>
       <c r="G310" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="311">
@@ -8212,13 +8212,13 @@
         <v>3280815</v>
       </c>
       <c r="E311" t="n">
-        <v>513</v>
+        <v>1403</v>
       </c>
       <c r="F311" t="n">
-        <v>2623</v>
+        <v>10532</v>
       </c>
       <c r="G311" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="312">
@@ -8237,13 +8237,13 @@
         <v>3280815</v>
       </c>
       <c r="E312" t="n">
-        <v>510</v>
+        <v>457</v>
       </c>
       <c r="F312" t="n">
-        <v>2600</v>
+        <v>3409</v>
       </c>
       <c r="G312" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313">
@@ -8262,13 +8262,38 @@
         <v>3280815</v>
       </c>
       <c r="E313" t="n">
-        <v>512</v>
+        <v>299</v>
       </c>
       <c r="F313" t="n">
-        <v>2597</v>
+        <v>3027</v>
       </c>
       <c r="G313" t="n">
-        <v>32</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>11.01.2021</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>115633</v>
+      </c>
+      <c r="C314" t="n">
+        <v>720</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E314" t="n">
+        <v>567</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2557</v>
+      </c>
+      <c r="G314" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2806,16 +2806,16 @@
         <v>2606</v>
       </c>
       <c r="C95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" t="n">
         <v>3280815</v>
       </c>
       <c r="E95" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F95" t="n">
-        <v>886</v>
+        <v>816</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -2831,19 +2831,19 @@
         <v>2606</v>
       </c>
       <c r="C96" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96" t="n">
         <v>3280815</v>
       </c>
       <c r="E96" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F96" t="n">
-        <v>928</v>
+        <v>886</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2981,7 +2981,7 @@
         <v>2893</v>
       </c>
       <c r="C102" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D102" t="n">
         <v>3280815</v>
@@ -2990,10 +2990,10 @@
         <v>30</v>
       </c>
       <c r="F102" t="n">
-        <v>1103</v>
+        <v>1122</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3006,16 +3006,16 @@
         <v>2893</v>
       </c>
       <c r="C103" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D103" t="n">
         <v>3280815</v>
       </c>
       <c r="E103" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F103" t="n">
-        <v>890</v>
+        <v>1103</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3156,16 +3156,16 @@
         <v>3273</v>
       </c>
       <c r="C109" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D109" t="n">
         <v>3280815</v>
       </c>
       <c r="E109" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F109" t="n">
-        <v>1171</v>
+        <v>1209</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3181,16 +3181,16 @@
         <v>3273</v>
       </c>
       <c r="C110" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D110" t="n">
         <v>3280815</v>
       </c>
       <c r="E110" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F110" t="n">
-        <v>941</v>
+        <v>1171</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3331,19 +3331,19 @@
         <v>3935</v>
       </c>
       <c r="C116" t="n">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D116" t="n">
         <v>3280815</v>
       </c>
       <c r="E116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F116" t="n">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3356,16 +3356,16 @@
         <v>3935</v>
       </c>
       <c r="C117" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D117" t="n">
         <v>3280815</v>
       </c>
       <c r="E117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F117" t="n">
-        <v>1283</v>
+        <v>1503</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -3506,16 +3506,16 @@
         <v>4962</v>
       </c>
       <c r="C123" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D123" t="n">
         <v>3280815</v>
       </c>
       <c r="E123" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F123" t="n">
-        <v>1837</v>
+        <v>1768</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -3531,16 +3531,16 @@
         <v>4962</v>
       </c>
       <c r="C124" t="n">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D124" t="n">
         <v>3280815</v>
       </c>
       <c r="E124" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F124" t="n">
-        <v>1556</v>
+        <v>1837</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -3687,10 +3687,10 @@
         <v>3280815</v>
       </c>
       <c r="E130" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F130" t="n">
-        <v>2054</v>
+        <v>2063</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -3712,13 +3712,13 @@
         <v>3280815</v>
       </c>
       <c r="E131" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F131" t="n">
-        <v>1735</v>
+        <v>2054</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -3756,19 +3756,19 @@
         <v>6981</v>
       </c>
       <c r="C133" t="n">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="D133" t="n">
         <v>3280815</v>
       </c>
       <c r="E133" t="n">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F133" t="n">
-        <v>2196</v>
+        <v>1882</v>
       </c>
       <c r="G133" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -3815,10 +3815,10 @@
         <v>124</v>
       </c>
       <c r="F135" t="n">
-        <v>2463</v>
+        <v>2264</v>
       </c>
       <c r="G135" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
@@ -3862,13 +3862,13 @@
         <v>3280815</v>
       </c>
       <c r="E137" t="n">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="F137" t="n">
-        <v>2910</v>
+        <v>2506</v>
       </c>
       <c r="G137" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -3887,13 +3887,13 @@
         <v>3280815</v>
       </c>
       <c r="E138" t="n">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F138" t="n">
-        <v>2787</v>
+        <v>2807</v>
       </c>
       <c r="G138" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
@@ -3912,10 +3912,10 @@
         <v>3280815</v>
       </c>
       <c r="E139" t="n">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F139" t="n">
-        <v>2905</v>
+        <v>2603</v>
       </c>
       <c r="G139" t="n">
         <v>8</v>
@@ -4031,19 +4031,19 @@
         <v>9767</v>
       </c>
       <c r="C144" t="n">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="D144" t="n">
         <v>3280815</v>
       </c>
       <c r="E144" t="n">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F144" t="n">
-        <v>2787</v>
+        <v>2962</v>
       </c>
       <c r="G144" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
@@ -4056,16 +4056,16 @@
         <v>9767</v>
       </c>
       <c r="C145" t="n">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="D145" t="n">
         <v>3280815</v>
       </c>
       <c r="E145" t="n">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F145" t="n">
-        <v>2763</v>
+        <v>2726</v>
       </c>
       <c r="G145" t="n">
         <v>6</v>
@@ -4206,19 +4206,19 @@
         <v>11876</v>
       </c>
       <c r="C151" t="n">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="D151" t="n">
         <v>3280815</v>
       </c>
       <c r="E151" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F151" t="n">
-        <v>2082</v>
+        <v>2279</v>
       </c>
       <c r="G151" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
@@ -4237,10 +4237,10 @@
         <v>3280815</v>
       </c>
       <c r="E152" t="n">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F152" t="n">
-        <v>1755</v>
+        <v>2082</v>
       </c>
       <c r="G152" t="n">
         <v>11</v>
@@ -4381,19 +4381,19 @@
         <v>13687</v>
       </c>
       <c r="C158" t="n">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D158" t="n">
         <v>3280815</v>
       </c>
       <c r="E158" t="n">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F158" t="n">
-        <v>1749</v>
+        <v>1952</v>
       </c>
       <c r="G158" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
@@ -4406,19 +4406,19 @@
         <v>13687</v>
       </c>
       <c r="C159" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D159" t="n">
         <v>3280815</v>
       </c>
       <c r="E159" t="n">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="F159" t="n">
-        <v>1487</v>
+        <v>1749</v>
       </c>
       <c r="G159" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -4562,13 +4562,13 @@
         <v>3280815</v>
       </c>
       <c r="E165" t="n">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="F165" t="n">
-        <v>2304</v>
+        <v>2249</v>
       </c>
       <c r="G165" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
@@ -4581,19 +4581,19 @@
         <v>15801</v>
       </c>
       <c r="C166" t="n">
-        <v>260</v>
+        <v>369</v>
       </c>
       <c r="D166" t="n">
         <v>3280815</v>
       </c>
       <c r="E166" t="n">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="F166" t="n">
-        <v>1914</v>
+        <v>2304</v>
       </c>
       <c r="G166" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
@@ -4712,10 +4712,10 @@
         <v>3280815</v>
       </c>
       <c r="E171" t="n">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="F171" t="n">
-        <v>2232</v>
+        <v>2382</v>
       </c>
       <c r="G171" t="n">
         <v>10</v>
@@ -4737,13 +4737,13 @@
         <v>3280815</v>
       </c>
       <c r="E172" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F172" t="n">
-        <v>2296</v>
+        <v>2310</v>
       </c>
       <c r="G172" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -4756,16 +4756,16 @@
         <v>17715</v>
       </c>
       <c r="C173" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D173" t="n">
         <v>3280815</v>
       </c>
       <c r="E173" t="n">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="F173" t="n">
-        <v>2048</v>
+        <v>2326</v>
       </c>
       <c r="G173" t="n">
         <v>9</v>
@@ -5112,13 +5112,13 @@
         <v>3280815</v>
       </c>
       <c r="E187" t="n">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F187" t="n">
-        <v>1965</v>
+        <v>1943</v>
       </c>
       <c r="G187" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188">
@@ -5262,10 +5262,10 @@
         <v>3280815</v>
       </c>
       <c r="E193" t="n">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F193" t="n">
-        <v>1177</v>
+        <v>1449</v>
       </c>
       <c r="G193" t="n">
         <v>5</v>
@@ -5287,10 +5287,10 @@
         <v>3280815</v>
       </c>
       <c r="E194" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F194" t="n">
-        <v>981</v>
+        <v>1177</v>
       </c>
       <c r="G194" t="n">
         <v>5</v>
@@ -5437,13 +5437,13 @@
         <v>3280815</v>
       </c>
       <c r="E200" t="n">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F200" t="n">
-        <v>3607</v>
+        <v>3395</v>
       </c>
       <c r="G200" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
@@ -5462,13 +5462,13 @@
         <v>3280815</v>
       </c>
       <c r="E201" t="n">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="F201" t="n">
-        <v>2511</v>
+        <v>3607</v>
       </c>
       <c r="G201" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
@@ -5612,13 +5612,13 @@
         <v>3280815</v>
       </c>
       <c r="E207" t="n">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F207" t="n">
-        <v>2539</v>
+        <v>2866</v>
       </c>
       <c r="G207" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208">
@@ -5637,13 +5637,13 @@
         <v>3280815</v>
       </c>
       <c r="E208" t="n">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="F208" t="n">
-        <v>2188</v>
+        <v>2539</v>
       </c>
       <c r="G208" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209">
@@ -5781,19 +5781,19 @@
         <v>27975</v>
       </c>
       <c r="C214" t="n">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D214" t="n">
         <v>3280815</v>
       </c>
       <c r="E214" t="n">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="F214" t="n">
-        <v>2447</v>
+        <v>2595</v>
       </c>
       <c r="G214" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
@@ -5812,13 +5812,13 @@
         <v>3280815</v>
       </c>
       <c r="E215" t="n">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="F215" t="n">
-        <v>2171</v>
+        <v>2447</v>
       </c>
       <c r="G215" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
@@ -5962,13 +5962,13 @@
         <v>3280815</v>
       </c>
       <c r="E221" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F221" t="n">
-        <v>2505</v>
+        <v>2556</v>
       </c>
       <c r="G221" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
@@ -5987,13 +5987,13 @@
         <v>3280815</v>
       </c>
       <c r="E222" t="n">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="F222" t="n">
-        <v>2253</v>
+        <v>2505</v>
       </c>
       <c r="G222" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223">
@@ -6137,13 +6137,13 @@
         <v>3280815</v>
       </c>
       <c r="E228" t="n">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="F228" t="n">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="G228" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229">
@@ -6162,13 +6162,13 @@
         <v>3280815</v>
       </c>
       <c r="E229" t="n">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F229" t="n">
-        <v>2476</v>
+        <v>2880</v>
       </c>
       <c r="G229" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230">
@@ -6240,7 +6240,7 @@
         <v>219</v>
       </c>
       <c r="F232" t="n">
-        <v>3815</v>
+        <v>3895</v>
       </c>
       <c r="G232" t="n">
         <v>14</v>
@@ -7731,7 +7731,7 @@
         <v>105524</v>
       </c>
       <c r="C292" t="n">
-        <v>812</v>
+        <v>752</v>
       </c>
       <c r="D292" t="n">
         <v>3280815</v>
@@ -8006,19 +8006,19 @@
         <v>110985</v>
       </c>
       <c r="C303" t="n">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D303" t="n">
         <v>3280815</v>
       </c>
       <c r="E303" t="n">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="F303" t="n">
-        <v>2411</v>
+        <v>2428</v>
       </c>
       <c r="G303" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="304">
@@ -8037,13 +8037,13 @@
         <v>3280815</v>
       </c>
       <c r="E304" t="n">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="F304" t="n">
-        <v>2457</v>
+        <v>2411</v>
       </c>
       <c r="G304" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="305">
@@ -8056,19 +8056,19 @@
         <v>112143</v>
       </c>
       <c r="C305" t="n">
-        <v>574</v>
+        <v>417</v>
       </c>
       <c r="D305" t="n">
         <v>3280815</v>
       </c>
       <c r="E305" t="n">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="F305" t="n">
-        <v>2580</v>
+        <v>2461</v>
       </c>
       <c r="G305" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306">
@@ -8087,13 +8087,13 @@
         <v>3280815</v>
       </c>
       <c r="E306" t="n">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F306" t="n">
-        <v>2741</v>
+        <v>2574</v>
       </c>
       <c r="G306" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="307">
@@ -8106,16 +8106,16 @@
         <v>112645</v>
       </c>
       <c r="C307" t="n">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="D307" t="n">
         <v>3280815</v>
       </c>
       <c r="E307" t="n">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="F307" t="n">
-        <v>2612</v>
+        <v>2711</v>
       </c>
       <c r="G307" t="n">
         <v>33</v>
@@ -8156,19 +8156,19 @@
         <v>113392</v>
       </c>
       <c r="C309" t="n">
-        <v>723</v>
+        <v>624</v>
       </c>
       <c r="D309" t="n">
         <v>3280815</v>
       </c>
       <c r="E309" t="n">
-        <v>726</v>
+        <v>538</v>
       </c>
       <c r="F309" t="n">
-        <v>3088</v>
+        <v>2517</v>
       </c>
       <c r="G309" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="310">
@@ -8181,19 +8181,19 @@
         <v>113392</v>
       </c>
       <c r="C310" t="n">
-        <v>636</v>
+        <v>688</v>
       </c>
       <c r="D310" t="n">
         <v>3280815</v>
       </c>
       <c r="E310" t="n">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="F310" t="n">
-        <v>3214</v>
+        <v>3042</v>
       </c>
       <c r="G310" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="311">
@@ -8281,7 +8281,7 @@
         <v>115633</v>
       </c>
       <c r="C314" t="n">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="D314" t="n">
         <v>3280815</v>
@@ -8294,6 +8294,81 @@
       </c>
       <c r="G314" t="n">
         <v>28</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>12.01.2021</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>116200</v>
+      </c>
+      <c r="C315" t="n">
+        <v>567</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E315" t="n">
+        <v>631</v>
+      </c>
+      <c r="F315" t="n">
+        <v>4386</v>
+      </c>
+      <c r="G315" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>13.01.2021</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>116668</v>
+      </c>
+      <c r="C316" t="n">
+        <v>468</v>
+      </c>
+      <c r="D316" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E316" t="n">
+        <v>692</v>
+      </c>
+      <c r="F316" t="n">
+        <v>4513</v>
+      </c>
+      <c r="G316" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>14.01.2021</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C317" t="n">
+        <v>343</v>
+      </c>
+      <c r="D317" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E317" t="n">
+        <v>671</v>
+      </c>
+      <c r="F317" t="n">
+        <v>4782</v>
+      </c>
+      <c r="G317" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G317"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8371,6 +8371,31 @@
         <v>21</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>15.01.2021</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C318" t="n">
+        <v>511</v>
+      </c>
+      <c r="D318" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E318" t="n">
+        <v>529</v>
+      </c>
+      <c r="F318" t="n">
+        <v>3578</v>
+      </c>
+      <c r="G318" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G318"/>
+  <dimension ref="A1:G324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8337,10 +8337,10 @@
         <v>3280815</v>
       </c>
       <c r="E316" t="n">
-        <v>692</v>
+        <v>840</v>
       </c>
       <c r="F316" t="n">
-        <v>4513</v>
+        <v>4170</v>
       </c>
       <c r="G316" t="n">
         <v>26</v>
@@ -8362,13 +8362,13 @@
         <v>3280815</v>
       </c>
       <c r="E317" t="n">
-        <v>671</v>
+        <v>988</v>
       </c>
       <c r="F317" t="n">
-        <v>4782</v>
+        <v>3021</v>
       </c>
       <c r="G317" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318">
@@ -8387,13 +8387,163 @@
         <v>3280815</v>
       </c>
       <c r="E318" t="n">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="F318" t="n">
-        <v>3578</v>
+        <v>2554</v>
       </c>
       <c r="G318" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>16.01.2021</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C319" t="n">
+        <v>488</v>
+      </c>
+      <c r="D319" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E319" t="n">
+        <v>346</v>
+      </c>
+      <c r="F319" t="n">
+        <v>3575</v>
+      </c>
+      <c r="G319" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>17.01.2021</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C320" t="n">
+        <v>539</v>
+      </c>
+      <c r="D320" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E320" t="n">
+        <v>303</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1711</v>
+      </c>
+      <c r="G320" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>18.01.2021</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>118083</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D321" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E321" t="n">
+        <v>622</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1849</v>
+      </c>
+      <c r="G321" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>19.01.2021</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>118383</v>
+      </c>
+      <c r="C322" t="n">
+        <v>300</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1566</v>
+      </c>
+      <c r="F322" t="n">
+        <v>3045</v>
+      </c>
+      <c r="G322" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>20.01.2021</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>118717</v>
+      </c>
+      <c r="C323" t="n">
+        <v>334</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2471</v>
+      </c>
+      <c r="G323" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>21.01.2021</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>119206</v>
+      </c>
+      <c r="C324" t="n">
+        <v>489</v>
+      </c>
+      <c r="D324" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E324" t="n">
+        <v>684</v>
+      </c>
+      <c r="F324" t="n">
+        <v>2546</v>
+      </c>
+      <c r="G324" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G324"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8537,13 +8537,63 @@
         <v>3280815</v>
       </c>
       <c r="E324" t="n">
-        <v>684</v>
+        <v>807</v>
       </c>
       <c r="F324" t="n">
-        <v>2546</v>
+        <v>2613</v>
       </c>
       <c r="G324" t="n">
-        <v>18</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>22.01.2021</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>119420</v>
+      </c>
+      <c r="C325" t="n">
+        <v>214</v>
+      </c>
+      <c r="D325" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E325" t="n">
+        <v>768</v>
+      </c>
+      <c r="F325" t="n">
+        <v>2530</v>
+      </c>
+      <c r="G325" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>23.01.2021</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>119420</v>
+      </c>
+      <c r="C326" t="n">
+        <v>546</v>
+      </c>
+      <c r="D326" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E326" t="n">
+        <v>860</v>
+      </c>
+      <c r="F326" t="n">
+        <v>2337</v>
+      </c>
+      <c r="G326" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,13 +8562,13 @@
         <v>3280815</v>
       </c>
       <c r="E325" t="n">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="F325" t="n">
-        <v>2530</v>
+        <v>2169</v>
       </c>
       <c r="G325" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="326">
@@ -8594,6 +8594,56 @@
       </c>
       <c r="G326" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>24.01.2021</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>119420</v>
+      </c>
+      <c r="C327" t="n">
+        <v>481</v>
+      </c>
+      <c r="D327" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E327" t="n">
+        <v>961</v>
+      </c>
+      <c r="F327" t="n">
+        <v>2429</v>
+      </c>
+      <c r="G327" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>25.01.2021</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>120143</v>
+      </c>
+      <c r="C328" t="n">
+        <v>723</v>
+      </c>
+      <c r="D328" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1914</v>
+      </c>
+      <c r="F328" t="n">
+        <v>5362</v>
+      </c>
+      <c r="G328" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8646,6 +8646,56 @@
         <v>38</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>26.01.2021</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>120532</v>
+      </c>
+      <c r="C329" t="n">
+        <v>389</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E329" t="n">
+        <v>727</v>
+      </c>
+      <c r="F329" t="n">
+        <v>2935</v>
+      </c>
+      <c r="G329" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>27.01.2021</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>120864</v>
+      </c>
+      <c r="C330" t="n">
+        <v>332</v>
+      </c>
+      <c r="D330" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E330" t="n">
+        <v>325</v>
+      </c>
+      <c r="F330" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G330" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8696,6 +8696,56 @@
         <v>22</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>28.01.2021</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>121194</v>
+      </c>
+      <c r="C331" t="n">
+        <v>330</v>
+      </c>
+      <c r="D331" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E331" t="n">
+        <v>415</v>
+      </c>
+      <c r="F331" t="n">
+        <v>2542</v>
+      </c>
+      <c r="G331" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>29.01.2021</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>121497</v>
+      </c>
+      <c r="C332" t="n">
+        <v>303</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E332" t="n">
+        <v>957</v>
+      </c>
+      <c r="F332" t="n">
+        <v>3220</v>
+      </c>
+      <c r="G332" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8737,13 +8737,138 @@
         <v>3280815</v>
       </c>
       <c r="E332" t="n">
-        <v>957</v>
+        <v>532</v>
       </c>
       <c r="F332" t="n">
-        <v>3220</v>
+        <v>2348</v>
       </c>
       <c r="G332" t="n">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>30.01.2021</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>121497</v>
+      </c>
+      <c r="C333" t="n">
+        <v>451</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E333" t="n">
+        <v>868</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3261</v>
+      </c>
+      <c r="G333" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>31.01.2021</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>121497</v>
+      </c>
+      <c r="C334" t="n">
+        <v>415</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E334" t="n">
+        <v>782</v>
+      </c>
+      <c r="F334" t="n">
+        <v>3245</v>
+      </c>
+      <c r="G334" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>01.02.2021</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>122199</v>
+      </c>
+      <c r="C335" t="n">
+        <v>702</v>
+      </c>
+      <c r="D335" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E335" t="n">
+        <v>576</v>
+      </c>
+      <c r="F335" t="n">
+        <v>5452</v>
+      </c>
+      <c r="G335" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>02.02.2021</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>122461</v>
+      </c>
+      <c r="C336" t="n">
+        <v>262</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E336" t="n">
+        <v>389</v>
+      </c>
+      <c r="F336" t="n">
+        <v>2663</v>
+      </c>
+      <c r="G336" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>03.02.2021</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>122828</v>
+      </c>
+      <c r="C337" t="n">
+        <v>367</v>
+      </c>
+      <c r="D337" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E337" t="n">
+        <v>634</v>
+      </c>
+      <c r="F337" t="n">
+        <v>3369</v>
+      </c>
+      <c r="G337" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/cleanData.xlsx
+++ b/dataSet/cleanData/cleanData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8862,13 +8862,88 @@
         <v>3280815</v>
       </c>
       <c r="E337" t="n">
-        <v>634</v>
+        <v>527</v>
       </c>
       <c r="F337" t="n">
-        <v>3369</v>
+        <v>3185</v>
       </c>
       <c r="G337" t="n">
-        <v>31</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>04.02.2021</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>122828</v>
+      </c>
+      <c r="C338" t="n">
+        <v>426</v>
+      </c>
+      <c r="D338" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E338" t="n">
+        <v>629</v>
+      </c>
+      <c r="F338" t="n">
+        <v>3393</v>
+      </c>
+      <c r="G338" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>05.02.2021</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>123434</v>
+      </c>
+      <c r="C339" t="n">
+        <v>606</v>
+      </c>
+      <c r="D339" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E339" t="n">
+        <v>628</v>
+      </c>
+      <c r="F339" t="n">
+        <v>3561</v>
+      </c>
+      <c r="G339" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>06.02.2021</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>123434</v>
+      </c>
+      <c r="C340" t="n">
+        <v>434</v>
+      </c>
+      <c r="D340" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E340" t="n">
+        <v>580</v>
+      </c>
+      <c r="F340" t="n">
+        <v>3587</v>
+      </c>
+      <c r="G340" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
